--- a/full_data.xlsx
+++ b/full_data.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Arkusz1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Arkusz1!$A$1:$P$401</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Arkusz1!$A$1:$Q$401</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="33">
   <si>
     <t>year</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>fdi</t>
+  </si>
+  <si>
+    <t>eu</t>
   </si>
   <si>
     <t>export_netto</t>
@@ -450,13 +453,16 @@
       <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" hidden="1">
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" s="3">
         <v>2000.0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="3">
@@ -496,15 +502,18 @@
         <v>1.43E8</v>
       </c>
       <c r="P2" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q2" s="3">
         <v>-7.958E8</v>
       </c>
     </row>
-    <row r="3" hidden="1">
+    <row r="3">
       <c r="A3" s="3">
         <v>2001.0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="3">
@@ -544,15 +553,18 @@
         <v>2.073E8</v>
       </c>
       <c r="P3" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q3" s="3">
         <v>-9.369E8</v>
       </c>
     </row>
-    <row r="4" hidden="1">
+    <row r="4">
       <c r="A4" s="3">
         <v>2002.0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="3">
@@ -592,15 +604,18 @@
         <v>1.35E8</v>
       </c>
       <c r="P4" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q4" s="3">
         <v>-1.16033E9</v>
       </c>
     </row>
-    <row r="5" hidden="1">
+    <row r="5">
       <c r="A5" s="3">
         <v>2003.0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="3">
@@ -640,15 +655,18 @@
         <v>1.780364007E8</v>
       </c>
       <c r="P5" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q5" s="3">
         <v>-1.419161206E9</v>
       </c>
     </row>
-    <row r="6" hidden="1">
+    <row r="6">
       <c r="A6" s="4">
         <v>2004.0</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="3">
         <v>37.3</v>
@@ -690,15 +708,18 @@
         <v>3.412851125E8</v>
       </c>
       <c r="P6" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q6" s="3">
         <v>-1.642928989E9</v>
       </c>
     </row>
-    <row r="7" hidden="1">
+    <row r="7">
       <c r="A7" s="4">
         <v>2005.0</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="3">
         <v>37.4</v>
@@ -740,15 +761,18 @@
         <v>2.624790126E8</v>
       </c>
       <c r="P7" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q7" s="3">
         <v>-2.039576837E9</v>
       </c>
     </row>
-    <row r="8" hidden="1">
+    <row r="8">
       <c r="A8" s="4">
         <v>2006.0</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" s="3">
         <v>37.4</v>
@@ -790,15 +814,18 @@
         <v>3.251383168E8</v>
       </c>
       <c r="P8" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q8" s="3">
         <v>-2.203548908E9</v>
       </c>
     </row>
-    <row r="9" hidden="1">
+    <row r="9">
       <c r="A9" s="4">
         <v>2007.0</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" s="3">
         <v>37.5</v>
@@ -840,15 +867,18 @@
         <v>6.522756037E8</v>
       </c>
       <c r="P9" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q9" s="3">
         <v>-2.879743004E9</v>
       </c>
     </row>
-    <row r="10" hidden="1">
+    <row r="10">
       <c r="A10" s="4">
         <v>2008.0</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" s="3">
         <v>37.5</v>
@@ -890,15 +920,18 @@
         <v>1.247181714E9</v>
       </c>
       <c r="P10" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q10" s="3">
         <v>-3.446126996E9</v>
       </c>
     </row>
-    <row r="11" hidden="1">
+    <row r="11">
       <c r="A11" s="4">
         <v>2009.0</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" s="3">
         <v>37.6</v>
@@ -940,15 +973,18 @@
         <v>1.345415234E9</v>
       </c>
       <c r="P11" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q11" s="3">
         <v>-2.967394173E9</v>
       </c>
     </row>
-    <row r="12" hidden="1">
+    <row r="12">
       <c r="A12" s="4">
         <v>2010.0</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12" s="3">
         <v>37.6</v>
@@ -990,15 +1026,18 @@
         <v>1.089898208E9</v>
       </c>
       <c r="P12" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q12" s="3">
         <v>-2.456390642E9</v>
       </c>
     </row>
-    <row r="13" hidden="1">
+    <row r="13">
       <c r="A13" s="4">
         <v>2011.0</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13" s="3">
         <v>37.6</v>
@@ -1040,15 +1079,18 @@
         <v>1.048706682E9</v>
       </c>
       <c r="P13" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q13" s="3">
         <v>-2.932716633E9</v>
       </c>
     </row>
-    <row r="14" hidden="1">
+    <row r="14">
       <c r="A14" s="4">
         <v>2012.0</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14" s="3">
         <v>37.6</v>
@@ -1090,15 +1132,18 @@
         <v>9.179945758E8</v>
       </c>
       <c r="P14" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-2.296761241E9</v>
       </c>
     </row>
-    <row r="15" hidden="1">
+    <row r="15">
       <c r="A15" s="4">
         <v>2013.0</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15" s="3">
         <v>37.7</v>
@@ -1140,15 +1185,18 @@
         <v>1.254150556E9</v>
       </c>
       <c r="P15" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q15" s="3">
         <v>-2.308765606E9</v>
       </c>
     </row>
-    <row r="16" hidden="1">
+    <row r="16">
       <c r="A16" s="4">
         <v>2014.0</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C16" s="3">
         <v>37.7</v>
@@ -1190,15 +1238,18 @@
         <v>1.149927986E9</v>
       </c>
       <c r="P16" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q16" s="3">
         <v>-2.506992158E9</v>
       </c>
     </row>
-    <row r="17" hidden="1">
+    <row r="17">
       <c r="A17" s="4">
         <v>2015.0</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C17" s="3">
         <v>37.7</v>
@@ -1240,15 +1291,18 @@
         <v>9.895783348E8</v>
       </c>
       <c r="P17" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q17" s="3">
         <v>-1.966180769E9</v>
       </c>
     </row>
-    <row r="18" hidden="1">
+    <row r="18">
       <c r="A18" s="4">
         <v>2016.0</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C18" s="3">
         <v>37.5</v>
@@ -1290,15 +1344,18 @@
         <v>1.044389555E9</v>
       </c>
       <c r="P18" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-2.001510213E9</v>
       </c>
     </row>
-    <row r="19" hidden="1">
+    <row r="19">
       <c r="A19" s="4">
         <v>2017.0</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C19" s="3">
         <v>37.3</v>
@@ -1340,15 +1397,18 @@
         <v>1.022757857E9</v>
       </c>
       <c r="P19" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q19" s="3">
         <v>-1.978658722E9</v>
       </c>
     </row>
-    <row r="20" hidden="1">
+    <row r="20">
       <c r="A20" s="4">
         <v>2018.0</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C20" s="3">
         <v>37.0</v>
@@ -1390,15 +1450,18 @@
         <v>1.204383364E9</v>
       </c>
       <c r="P20" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-2.069586882E9</v>
       </c>
     </row>
-    <row r="21" hidden="1">
+    <row r="21">
       <c r="A21" s="4">
         <v>2019.0</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C21" s="3">
         <v>36.9</v>
@@ -1440,15 +1503,18 @@
         <v>1.201022154E9</v>
       </c>
       <c r="P21" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-2.103429046E9</v>
       </c>
     </row>
-    <row r="22" hidden="1">
+    <row r="22">
       <c r="A22" s="3">
         <v>2000.0</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="3">
@@ -1488,15 +1554,18 @@
         <v>1.001503842E9</v>
       </c>
       <c r="P22" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>-6.699897772E8</v>
       </c>
     </row>
-    <row r="23" hidden="1">
+    <row r="23">
       <c r="A23" s="3">
         <v>2001.0</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="3">
@@ -1536,15 +1605,18 @@
         <v>8.12942202E8</v>
       </c>
       <c r="P23" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-1.327927122E9</v>
       </c>
     </row>
-    <row r="24" hidden="1">
+    <row r="24">
       <c r="A24" s="3">
         <v>2002.0</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="3">
@@ -1584,15 +1656,18 @@
         <v>9.046597911E8</v>
       </c>
       <c r="P24" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-1.2099023E9</v>
       </c>
     </row>
-    <row r="25" hidden="1">
+    <row r="25">
       <c r="A25" s="3">
         <v>2003.0</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="3">
@@ -1632,15 +1707,18 @@
         <v>2.0967887E9</v>
       </c>
       <c r="P25" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q25" s="3">
         <v>-2.061604765E9</v>
       </c>
     </row>
-    <row r="26" hidden="1">
+    <row r="26">
       <c r="A26" s="4">
         <v>2004.0</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C26" s="3">
         <v>32.7</v>
@@ -1682,15 +1760,18 @@
         <v>3.072550962E9</v>
       </c>
       <c r="P26" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-2.896945991E9</v>
       </c>
     </row>
-    <row r="27" hidden="1">
+    <row r="27">
       <c r="A27" s="4">
         <v>2005.0</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C27" s="3">
         <v>32.9</v>
@@ -1732,6 +1813,9 @@
         <v>4.098122931E9</v>
       </c>
       <c r="P27" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-4.449983422E9</v>
       </c>
     </row>
@@ -1740,7 +1824,7 @@
         <v>2006.0</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C28" s="3">
         <v>33.2</v>
@@ -1782,15 +1866,18 @@
         <v>7.874476255E9</v>
       </c>
       <c r="P28" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q28" s="3">
         <v>-5.84435205E9</v>
       </c>
     </row>
-    <row r="29" hidden="1">
+    <row r="29">
       <c r="A29" s="4">
         <v>2007.0</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C29" s="3">
         <v>33.4</v>
@@ -1832,15 +1919,18 @@
         <v>1.3875270457E10</v>
       </c>
       <c r="P29" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-8.945175667E9</v>
       </c>
     </row>
-    <row r="30" hidden="1">
+    <row r="30">
       <c r="A30" s="4">
         <v>2008.0</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C30" s="3">
         <v>33.3</v>
@@ -1882,15 +1972,18 @@
         <v>1.0296720634E10</v>
       </c>
       <c r="P30" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q30" s="3">
         <v>-1.0620241928E10</v>
       </c>
     </row>
-    <row r="31" hidden="1">
+    <row r="31">
       <c r="A31" s="4">
         <v>2009.0</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C31" s="3">
         <v>33.5</v>
@@ -1932,15 +2025,18 @@
         <v>3.896664559E9</v>
       </c>
       <c r="P31" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q31" s="3">
         <v>-3.922786474E9</v>
       </c>
     </row>
-    <row r="32" hidden="1">
+    <row r="32">
       <c r="A32" s="4">
         <v>2010.0</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C32" s="3">
         <v>33.9</v>
@@ -1982,15 +2078,18 @@
         <v>1.8429E9</v>
       </c>
       <c r="P32" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-1.62716E9</v>
       </c>
     </row>
-    <row r="33" hidden="1">
+    <row r="33">
       <c r="A33" s="4">
         <v>2011.0</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C33" s="3">
         <v>34.4</v>
@@ -2032,15 +2131,18 @@
         <v>2.10381E9</v>
       </c>
       <c r="P33" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>1.7011E8</v>
       </c>
     </row>
-    <row r="34" hidden="1">
+    <row r="34">
       <c r="A34" s="4">
         <v>2012.0</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C34" s="3">
         <v>35.0</v>
@@ -2082,15 +2184,18 @@
         <v>1.78811E9</v>
       </c>
       <c r="P34" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q34" s="3">
         <v>-1.88624E9</v>
       </c>
     </row>
-    <row r="35" hidden="1">
+    <row r="35">
       <c r="A35" s="4">
         <v>2013.0</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C35" s="3">
         <v>35.7</v>
@@ -2132,15 +2237,18 @@
         <v>1.98904E9</v>
       </c>
       <c r="P35" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-3.8558E8</v>
       </c>
     </row>
-    <row r="36" hidden="1">
+    <row r="36">
       <c r="A36" s="4">
         <v>2014.0</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C36" s="3">
         <v>36.4</v>
@@ -2182,15 +2290,18 @@
         <v>1.0936E9</v>
       </c>
       <c r="P36" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q36" s="3">
         <v>-2.8746E8</v>
       </c>
     </row>
-    <row r="37" hidden="1">
+    <row r="37">
       <c r="A37" s="4">
         <v>2015.0</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C37" s="3">
         <v>37.1</v>
@@ -2232,15 +2343,18 @@
         <v>2.22139E9</v>
       </c>
       <c r="P37" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q37" s="3">
         <v>3.825E8</v>
       </c>
     </row>
-    <row r="38" hidden="1">
+    <row r="38">
       <c r="A38" s="4">
         <v>2016.0</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C38" s="3">
         <v>37.8</v>
@@ -2282,15 +2396,18 @@
         <v>1.48843E9</v>
       </c>
       <c r="P38" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q38" s="3">
         <v>2.56499E9</v>
       </c>
     </row>
-    <row r="39" hidden="1">
+    <row r="39">
       <c r="A39" s="4">
         <v>2017.0</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C39" s="3">
         <v>38.3</v>
@@ -2332,15 +2449,18 @@
         <v>2.00729E9</v>
       </c>
       <c r="P39" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q39" s="3">
         <v>2.60888E9</v>
       </c>
     </row>
-    <row r="40" hidden="1">
+    <row r="40">
       <c r="A40" s="4">
         <v>2018.0</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C40" s="3">
         <v>38.6</v>
@@ -2382,15 +2502,18 @@
         <v>1.80986E9</v>
       </c>
       <c r="P40" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q40" s="3">
         <v>1.6123E9</v>
       </c>
     </row>
-    <row r="41" hidden="1">
+    <row r="41">
       <c r="A41" s="4">
         <v>2019.0</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C41" s="3">
         <v>38.7</v>
@@ -2432,15 +2555,18 @@
         <v>2.22125E9</v>
       </c>
       <c r="P41" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>2.19859E9</v>
       </c>
     </row>
-    <row r="42" hidden="1">
+    <row r="42">
       <c r="A42" s="3">
         <v>2000.0</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="3">
@@ -2480,15 +2606,18 @@
         <v>1.015069997E9</v>
       </c>
       <c r="P42" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q42" s="3">
         <v>-9.810832122E8</v>
       </c>
     </row>
-    <row r="43" hidden="1">
+    <row r="43">
       <c r="A43" s="3">
         <v>2001.0</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="3">
@@ -2528,15 +2657,18 @@
         <v>1.036758146E9</v>
       </c>
       <c r="P43" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q43" s="3">
         <v>-1.193518727E9</v>
       </c>
     </row>
-    <row r="44" hidden="1">
+    <row r="44">
       <c r="A44" s="3">
         <v>2002.0</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="3">
@@ -2576,15 +2708,18 @@
         <v>9.807843048E8</v>
       </c>
       <c r="P44" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q44" s="3">
         <v>-2.488612765E9</v>
       </c>
     </row>
-    <row r="45" hidden="1">
+    <row r="45">
       <c r="A45" s="3">
         <v>2003.0</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="3">
@@ -2624,15 +2759,18 @@
         <v>1.846434012E9</v>
       </c>
       <c r="P45" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q45" s="3">
         <v>-3.645351298E9</v>
       </c>
     </row>
-    <row r="46" hidden="1">
+    <row r="46">
       <c r="A46" s="4">
         <v>2004.0</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C46" s="3">
         <v>26.6</v>
@@ -2674,15 +2812,18 @@
         <v>1.314179917E9</v>
       </c>
       <c r="P46" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q46" s="3">
         <v>-3.598621897E9</v>
       </c>
     </row>
-    <row r="47" hidden="1">
+    <row r="47">
       <c r="A47" s="4">
         <v>2005.0</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C47" s="3">
         <v>26.5</v>
@@ -2724,6 +2865,9 @@
         <v>1.814728743E9</v>
       </c>
       <c r="P47" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q47" s="3">
         <v>-4.026839893E9</v>
       </c>
     </row>
@@ -2732,7 +2876,7 @@
         <v>2006.0</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C48" s="3">
         <v>26.6</v>
@@ -2774,15 +2918,18 @@
         <v>3.346611893E9</v>
       </c>
       <c r="P48" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q48" s="3">
         <v>-4.228998809E9</v>
       </c>
     </row>
-    <row r="49" hidden="1">
+    <row r="49">
       <c r="A49" s="4">
         <v>2007.0</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C49" s="3">
         <v>27.0</v>
@@ -2824,15 +2971,18 @@
         <v>4.645807617E9</v>
       </c>
       <c r="P49" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q49" s="3">
         <v>-5.05560724E9</v>
       </c>
     </row>
-    <row r="50" hidden="1">
+    <row r="50">
       <c r="A50" s="4">
         <v>2008.0</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C50" s="3">
         <v>27.7</v>
@@ -2874,15 +3024,18 @@
         <v>5.249620116E9</v>
       </c>
       <c r="P50" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q50" s="3">
         <v>-7.067849449E9</v>
       </c>
     </row>
-    <row r="51" hidden="1">
+    <row r="51">
       <c r="A51" s="4">
         <v>2009.0</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C51" s="3">
         <v>28.4</v>
@@ -2924,15 +3077,18 @@
         <v>3.069599256E9</v>
       </c>
       <c r="P51" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q51" s="3">
         <v>-3.409457895E9</v>
       </c>
     </row>
-    <row r="52" hidden="1">
+    <row r="52">
       <c r="A52" s="4">
         <v>2010.0</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C52" s="3">
         <v>28.8</v>
@@ -2974,15 +3130,18 @@
         <v>1.545050408E9</v>
       </c>
       <c r="P52" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q52" s="3">
         <v>-1.141232643E9</v>
       </c>
     </row>
-    <row r="53" hidden="1">
+    <row r="53">
       <c r="A53" s="4">
         <v>2011.0</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C53" s="3">
         <v>29.1</v>
@@ -3024,15 +3183,18 @@
         <v>1.248979436E9</v>
       </c>
       <c r="P53" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q53" s="3">
         <v>-9.747619701E8</v>
       </c>
     </row>
-    <row r="54" hidden="1">
+    <row r="54">
       <c r="A54" s="4">
         <v>2012.0</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C54" s="3">
         <v>29.2</v>
@@ -3074,15 +3236,18 @@
         <v>1.465100045E9</v>
       </c>
       <c r="P54" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q54" s="3">
         <v>1.438837976E8</v>
       </c>
     </row>
-    <row r="55" hidden="1">
+    <row r="55">
       <c r="A55" s="4">
         <v>2013.0</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C55" s="3">
         <v>29.2</v>
@@ -3124,15 +3289,18 @@
         <v>9.592100693E8</v>
       </c>
       <c r="P55" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q55" s="3">
         <v>-1.168433991E9</v>
       </c>
     </row>
-    <row r="56" hidden="1">
+    <row r="56">
       <c r="A56" s="4">
         <v>2014.0</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C56" s="3">
         <v>29.2</v>
@@ -3174,15 +3342,18 @@
         <v>3.180984833E9</v>
       </c>
       <c r="P56" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q56" s="3">
         <v>-2.403446959E8</v>
       </c>
     </row>
-    <row r="57" hidden="1">
+    <row r="57">
       <c r="A57" s="4">
         <v>2015.0</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C57" s="3">
         <v>29.0</v>
@@ -3224,15 +3395,18 @@
         <v>3.319469702E7</v>
       </c>
       <c r="P57" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q57" s="3">
         <v>1.227864195E8</v>
       </c>
     </row>
-    <row r="58" hidden="1">
+    <row r="58">
       <c r="A58" s="4">
         <v>2016.0</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C58" s="3">
         <v>28.9</v>
@@ -3274,15 +3448,18 @@
         <v>4.372657239E8</v>
       </c>
       <c r="P58" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q58" s="3">
         <v>6.642721209E8</v>
       </c>
     </row>
-    <row r="59" hidden="1">
+    <row r="59">
       <c r="A59" s="4">
         <v>2017.0</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C59" s="3">
         <v>28.7</v>
@@ -3324,15 +3501,18 @@
         <v>4.496357842E8</v>
       </c>
       <c r="P59" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q59" s="3">
         <v>5.835366687E8</v>
       </c>
     </row>
-    <row r="60" hidden="1">
+    <row r="60">
       <c r="A60" s="4">
         <v>2018.0</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C60" s="3">
         <v>28.5</v>
@@ -3374,15 +3554,18 @@
         <v>1.312177886E9</v>
       </c>
       <c r="P60" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q60" s="3">
         <v>-6.475032215E8</v>
       </c>
     </row>
-    <row r="61" hidden="1">
+    <row r="61">
       <c r="A61" s="4">
         <v>2019.0</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C61" s="3">
         <v>28.3</v>
@@ -3424,15 +3607,18 @@
         <v>3.939470165E9</v>
       </c>
       <c r="P61" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>-2.891007674E8</v>
       </c>
     </row>
-    <row r="62" hidden="1">
+    <row r="62">
       <c r="A62" s="3">
         <v>1990.0</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="3">
@@ -3459,14 +3645,17 @@
       </c>
       <c r="N62" s="5"/>
       <c r="O62" s="5"/>
-      <c r="P62" s="5"/>
-    </row>
-    <row r="63" hidden="1">
+      <c r="P62" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q62" s="5"/>
+    </row>
+    <row r="63">
       <c r="A63" s="3">
         <v>1991.0</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="3">
@@ -3493,14 +3682,17 @@
       </c>
       <c r="N63" s="5"/>
       <c r="O63" s="5"/>
-      <c r="P63" s="5"/>
-    </row>
-    <row r="64" hidden="1">
+      <c r="P63" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q63" s="5"/>
+    </row>
+    <row r="64">
       <c r="A64" s="3">
         <v>1992.0</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="3">
@@ -3527,14 +3719,17 @@
       </c>
       <c r="N64" s="5"/>
       <c r="O64" s="5"/>
-      <c r="P64" s="5"/>
-    </row>
-    <row r="65" hidden="1">
+      <c r="P64" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q64" s="5"/>
+    </row>
+    <row r="65">
       <c r="A65" s="3">
         <v>1993.0</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="3">
@@ -3566,15 +3761,18 @@
         <v>6.542784247E8</v>
       </c>
       <c r="P65" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q65" s="3">
         <v>4.956331904E8</v>
       </c>
     </row>
-    <row r="66" hidden="1">
+    <row r="66">
       <c r="A66" s="3">
         <v>1994.0</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="3">
@@ -3606,15 +3804,18 @@
         <v>8.782317397E8</v>
       </c>
       <c r="P66" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q66" s="3">
         <v>-9.25738684E8</v>
       </c>
     </row>
-    <row r="67" hidden="1">
+    <row r="67">
       <c r="A67" s="3">
         <v>1995.0</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="3">
@@ -3654,15 +3855,18 @@
         <v>2.567564642E9</v>
       </c>
       <c r="P67" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q67" s="3">
         <v>-1.84175004E9</v>
       </c>
     </row>
-    <row r="68" hidden="1">
+    <row r="68">
       <c r="A68" s="3">
         <v>1996.0</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="3">
@@ -3702,15 +3906,18 @@
         <v>1.435279128E9</v>
       </c>
       <c r="P68" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q68" s="3">
         <v>-3.789213045E9</v>
       </c>
     </row>
-    <row r="69" hidden="1">
+    <row r="69">
       <c r="A69" s="3">
         <v>1997.0</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="3">
@@ -3750,15 +3957,18 @@
         <v>1.286492873E9</v>
       </c>
       <c r="P69" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q69" s="3">
         <v>-3.195715989E9</v>
       </c>
     </row>
-    <row r="70" hidden="1">
+    <row r="70">
       <c r="A70" s="3">
         <v>1998.0</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="3">
@@ -3798,15 +4008,18 @@
         <v>3.700169388E9</v>
       </c>
       <c r="P70" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q70" s="3">
         <v>-7.313646358E8</v>
       </c>
     </row>
-    <row r="71" hidden="1">
+    <row r="71">
       <c r="A71" s="3">
         <v>1999.0</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="3">
@@ -3846,15 +4059,18 @@
         <v>6.312596676E9</v>
       </c>
       <c r="P71" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q71" s="3">
         <v>-7.036207232E8</v>
       </c>
     </row>
-    <row r="72" hidden="1">
+    <row r="72">
       <c r="A72" s="3">
         <v>2000.0</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="3">
@@ -3894,15 +4110,18 @@
         <v>4.987079129E9</v>
       </c>
       <c r="P72" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-1.691999205E9</v>
       </c>
     </row>
-    <row r="73" hidden="1">
+    <row r="73">
       <c r="A73" s="3">
         <v>2001.0</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="3">
@@ -3942,15 +4161,18 @@
         <v>5.640707236E9</v>
       </c>
       <c r="P73" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q73" s="3">
         <v>-1.553701214E9</v>
       </c>
     </row>
-    <row r="74" hidden="1">
+    <row r="74">
       <c r="A74" s="3">
         <v>2002.0</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="3">
@@ -3990,15 +4212,18 @@
         <v>8.496609036E9</v>
       </c>
       <c r="P74" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q74" s="3">
         <v>-1.596691456E9</v>
       </c>
     </row>
-    <row r="75" hidden="1">
+    <row r="75">
       <c r="A75" s="3">
         <v>2003.0</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="3">
@@ -4038,15 +4263,18 @@
         <v>2.021275746E9</v>
       </c>
       <c r="P75" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q75" s="3">
         <v>-2.04932086E9</v>
       </c>
     </row>
-    <row r="76" hidden="1">
+    <row r="76">
       <c r="A76" s="4">
         <v>2004.0</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C76" s="3">
         <v>25.7</v>
@@ -4088,15 +4316,18 @@
         <v>6.423465151E9</v>
       </c>
       <c r="P76" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q76" s="3">
         <v>5.282738734E8</v>
       </c>
     </row>
-    <row r="77" hidden="1">
+    <row r="77">
       <c r="A77" s="4">
         <v>2005.0</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C77" s="3">
         <v>25.7</v>
@@ -4138,6 +4369,9 @@
         <v>1.3730164683E10</v>
       </c>
       <c r="P77" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q77" s="3">
         <v>2.898065161E9</v>
       </c>
     </row>
@@ -4146,7 +4380,7 @@
         <v>2006.0</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C78" s="3">
         <v>25.5</v>
@@ -4188,15 +4422,18 @@
         <v>7.132002408E9</v>
       </c>
       <c r="P78" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q78" s="3">
         <v>3.790265561E9</v>
       </c>
     </row>
-    <row r="79" hidden="1">
+    <row r="79">
       <c r="A79" s="4">
         <v>2007.0</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C79" s="3">
         <v>25.3</v>
@@ -4238,15 +4475,18 @@
         <v>1.3815656004E10</v>
       </c>
       <c r="P79" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q79" s="3">
         <v>4.052160271E9</v>
       </c>
     </row>
-    <row r="80" hidden="1">
+    <row r="80">
       <c r="A80" s="4">
         <v>2008.0</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C80" s="3">
         <v>25.2</v>
@@ -4288,15 +4528,18 @@
         <v>8.815393022E9</v>
       </c>
       <c r="P80" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q80" s="3">
         <v>5.219998907E9</v>
       </c>
     </row>
-    <row r="81" hidden="1">
+    <row r="81">
       <c r="A81" s="4">
         <v>2009.0</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C81" s="3">
         <v>25.1</v>
@@ -4338,15 +4581,18 @@
         <v>5.271613702E9</v>
       </c>
       <c r="P81" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>7.700186522E9</v>
       </c>
     </row>
-    <row r="82" hidden="1">
+    <row r="82">
       <c r="A82" s="4">
         <v>2010.0</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C82" s="3">
         <v>25.3</v>
@@ -4388,15 +4634,18 @@
         <v>1.0167834375E10</v>
       </c>
       <c r="P82" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q82" s="3">
         <v>6.192291073E9</v>
       </c>
     </row>
-    <row r="83" hidden="1">
+    <row r="83">
       <c r="A83" s="4">
         <v>2011.0</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C83" s="3">
         <v>25.2</v>
@@ -4438,15 +4687,18 @@
         <v>4.188736491E9</v>
       </c>
       <c r="P83" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q83" s="3">
         <v>8.894622491E9</v>
       </c>
     </row>
-    <row r="84" hidden="1">
+    <row r="84">
       <c r="A84" s="4">
         <v>2012.0</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C84" s="3">
         <v>25.1</v>
@@ -4488,15 +4740,18 @@
         <v>9.433199805E9</v>
       </c>
       <c r="P84" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q84" s="3">
         <v>1.0309254508E10</v>
       </c>
     </row>
-    <row r="85" hidden="1">
+    <row r="85">
       <c r="A85" s="4">
         <v>2013.0</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C85" s="3">
         <v>25.3</v>
@@ -4538,15 +4793,18 @@
         <v>7.357578653E9</v>
       </c>
       <c r="P85" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q85" s="3">
         <v>1.2123723407E10</v>
       </c>
     </row>
-    <row r="86" hidden="1">
+    <row r="86">
       <c r="A86" s="4">
         <v>2014.0</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C86" s="3">
         <v>25.2</v>
@@ -4588,15 +4846,18 @@
         <v>8.08866193E9</v>
       </c>
       <c r="P86" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q86" s="3">
         <v>1.3436484695E10</v>
       </c>
     </row>
-    <row r="87" hidden="1">
+    <row r="87">
       <c r="A87" s="4">
         <v>2015.0</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C87" s="3">
         <v>25.1</v>
@@ -4638,15 +4899,18 @@
         <v>1.699914617E9</v>
       </c>
       <c r="P87" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q87" s="3">
         <v>1.1152289235E10</v>
       </c>
     </row>
-    <row r="88" hidden="1">
+    <row r="88">
       <c r="A88" s="4">
         <v>2016.0</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C88" s="3">
         <v>24.9</v>
@@ -4688,15 +4952,18 @@
         <v>1.0850612308E10</v>
       </c>
       <c r="P88" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q88" s="3">
         <v>1.4970590109E10</v>
       </c>
     </row>
-    <row r="89" hidden="1">
+    <row r="89">
       <c r="A89" s="4">
         <v>2017.0</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C89" s="3">
         <v>24.5</v>
@@ -4738,15 +5005,18 @@
         <v>1.1234740946E10</v>
       </c>
       <c r="P89" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>1.6255121232E10</v>
       </c>
     </row>
-    <row r="90" hidden="1">
+    <row r="90">
       <c r="A90" s="4">
         <v>2018.0</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C90" s="3">
         <v>24.4</v>
@@ -4788,15 +5058,18 @@
         <v>8.324668391E9</v>
       </c>
       <c r="P90" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q90" s="3">
         <v>1.4918713754E10</v>
       </c>
     </row>
-    <row r="91" hidden="1">
+    <row r="91">
       <c r="A91" s="4">
         <v>2019.0</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C91" s="3">
         <v>24.4</v>
@@ -4838,15 +5111,18 @@
         <v>1.0752120871E10</v>
       </c>
       <c r="P91" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>1.5115744347E10</v>
       </c>
     </row>
-    <row r="92" hidden="1">
+    <row r="92">
       <c r="A92" s="3">
         <v>1990.0</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="3">
@@ -4871,14 +5147,17 @@
       </c>
       <c r="N92" s="5"/>
       <c r="O92" s="5"/>
-      <c r="P92" s="5"/>
-    </row>
-    <row r="93" hidden="1">
+      <c r="P92" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q92" s="5"/>
+    </row>
+    <row r="93">
       <c r="A93" s="3">
         <v>1991.0</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="3">
@@ -4903,14 +5182,17 @@
       </c>
       <c r="N93" s="5"/>
       <c r="O93" s="5"/>
-      <c r="P93" s="5"/>
-    </row>
-    <row r="94" hidden="1">
+      <c r="P93" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q93" s="5"/>
+    </row>
+    <row r="94">
       <c r="A94" s="3">
         <v>1992.0</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="3">
@@ -4938,15 +5220,18 @@
         <v>8.227198864E7</v>
       </c>
       <c r="P94" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-4.766378628E7</v>
       </c>
     </row>
-    <row r="95" hidden="1">
+    <row r="95">
       <c r="A95" s="3">
         <v>1993.0</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="3">
@@ -4974,15 +5259,18 @@
         <v>1.683715446E8</v>
       </c>
       <c r="P95" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q95" s="3">
         <v>-6.965173981E7</v>
       </c>
     </row>
-    <row r="96" hidden="1">
+    <row r="96">
       <c r="A96" s="3">
         <v>1994.0</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="3">
@@ -5012,15 +5300,18 @@
         <v>2.184476072E8</v>
       </c>
       <c r="P96" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-2.513387078E8</v>
       </c>
     </row>
-    <row r="97" hidden="1">
+    <row r="97">
       <c r="A97" s="3">
         <v>1995.0</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="3">
@@ -5060,15 +5351,18 @@
         <v>2.068074794E8</v>
       </c>
       <c r="P97" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q97" s="3">
         <v>-2.869029592E8</v>
       </c>
     </row>
-    <row r="98" hidden="1">
+    <row r="98">
       <c r="A98" s="3">
         <v>1996.0</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="3">
@@ -5108,15 +5402,18 @@
         <v>1.658507314E8</v>
       </c>
       <c r="P98" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q98" s="3">
         <v>-5.005531511E8</v>
       </c>
     </row>
-    <row r="99" hidden="1">
+    <row r="99">
       <c r="A99" s="3">
         <v>1997.0</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="3">
@@ -5156,15 +5453,18 @@
         <v>2.740496119E8</v>
       </c>
       <c r="P99" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q99" s="3">
         <v>-5.327038849E8</v>
       </c>
     </row>
-    <row r="100" hidden="1">
+    <row r="100">
       <c r="A100" s="3">
         <v>1998.0</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C100" s="5"/>
       <c r="D100" s="3">
@@ -5204,15 +5504,18 @@
         <v>5.955879425E8</v>
       </c>
       <c r="P100" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-5.457486921E8</v>
       </c>
     </row>
-    <row r="101" hidden="1">
+    <row r="101">
       <c r="A101" s="3">
         <v>1999.0</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="3">
@@ -5252,15 +5555,18 @@
         <v>3.258927894E8</v>
       </c>
       <c r="P101" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-3.054264381E8</v>
       </c>
     </row>
-    <row r="102" hidden="1">
+    <row r="102">
       <c r="A102" s="3">
         <v>2000.0</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="3">
@@ -5300,15 +5606,18 @@
         <v>4.162142868E8</v>
       </c>
       <c r="P102" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-1.817997414E8</v>
       </c>
     </row>
-    <row r="103" hidden="1">
+    <row r="103">
       <c r="A103" s="3">
         <v>2001.0</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C103" s="5"/>
       <c r="D103" s="3">
@@ -5348,15 +5657,18 @@
         <v>5.928895802E8</v>
       </c>
       <c r="P103" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q103" s="3">
         <v>-1.298775125E8</v>
       </c>
     </row>
-    <row r="104" hidden="1">
+    <row r="104">
       <c r="A104" s="3">
         <v>2002.0</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="3">
@@ -5396,15 +5708,18 @@
         <v>3.382342604E8</v>
       </c>
       <c r="P104" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q104" s="3">
         <v>-5.185375169E8</v>
       </c>
     </row>
-    <row r="105" hidden="1">
+    <row r="105">
       <c r="A105" s="3">
         <v>2003.0</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="3">
@@ -5444,15 +5759,18 @@
         <v>1.038244664E9</v>
       </c>
       <c r="P105" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q105" s="3">
         <v>-8.3660335E8</v>
       </c>
     </row>
-    <row r="106" hidden="1">
+    <row r="106">
       <c r="A106" s="4">
         <v>2004.0</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C106" s="3">
         <v>34.2</v>
@@ -5494,15 +5812,18 @@
         <v>1.086893435E9</v>
       </c>
       <c r="P106" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q106" s="3">
         <v>-9.49700084E8</v>
       </c>
     </row>
-    <row r="107" hidden="1">
+    <row r="107">
       <c r="A107" s="4">
         <v>2005.0</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C107" s="3">
         <v>33.7</v>
@@ -5544,6 +5865,9 @@
         <v>3.057558405E9</v>
       </c>
       <c r="P107" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q107" s="3">
         <v>-7.04594343E8</v>
       </c>
     </row>
@@ -5552,7 +5876,7 @@
         <v>2006.0</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C108" s="3">
         <v>33.2</v>
@@ -5594,15 +5918,18 @@
         <v>1.758167636E9</v>
       </c>
       <c r="P108" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q108" s="3">
         <v>-1.728295836E9</v>
       </c>
     </row>
-    <row r="109" hidden="1">
+    <row r="109">
       <c r="A109" s="4">
         <v>2007.0</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C109" s="3">
         <v>32.3</v>
@@ -5644,15 +5971,18 @@
         <v>3.03314592E9</v>
       </c>
       <c r="P109" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q109" s="3">
         <v>-1.964475152E9</v>
       </c>
     </row>
-    <row r="110" hidden="1">
+    <row r="110">
       <c r="A110" s="4">
         <v>2008.0</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C110" s="3">
         <v>31.9</v>
@@ -5694,15 +6024,18 @@
         <v>1.977264597E9</v>
       </c>
       <c r="P110" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q110" s="3">
         <v>-9.606362234E8</v>
       </c>
     </row>
-    <row r="111" hidden="1">
+    <row r="111">
       <c r="A111" s="4">
         <v>2009.0</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C111" s="3">
         <v>31.8</v>
@@ -5744,15 +6077,18 @@
         <v>1.866296947E9</v>
       </c>
       <c r="P111" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q111" s="3">
         <v>9.893002758E8</v>
       </c>
     </row>
-    <row r="112" hidden="1">
+    <row r="112">
       <c r="A112" s="4">
         <v>2010.0</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C112" s="3">
         <v>32.1</v>
@@ -5794,15 +6130,18 @@
         <v>2.592255115E9</v>
       </c>
       <c r="P112" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q112" s="3">
         <v>1.245764979E9</v>
       </c>
     </row>
-    <row r="113" hidden="1">
+    <row r="113">
       <c r="A113" s="4">
         <v>2011.0</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C113" s="3">
         <v>32.5</v>
@@ -5844,15 +6183,18 @@
         <v>1.119148299E9</v>
       </c>
       <c r="P113" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q113" s="3">
         <v>1.350581522E9</v>
       </c>
     </row>
-    <row r="114" hidden="1">
+    <row r="114">
       <c r="A114" s="4">
         <v>2012.0</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C114" s="3">
         <v>32.9</v>
@@ -5894,15 +6236,18 @@
         <v>1.787341527E9</v>
       </c>
       <c r="P114" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q114" s="3">
         <v>3.856689303E8</v>
       </c>
     </row>
-    <row r="115" hidden="1">
+    <row r="115">
       <c r="A115" s="4">
         <v>2013.0</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C115" s="3">
         <v>33.5</v>
@@ -5944,15 +6289,18 @@
         <v>1.097942107E9</v>
       </c>
       <c r="P115" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q115" s="3">
         <v>6.740085602E8</v>
       </c>
     </row>
-    <row r="116" hidden="1">
+    <row r="116">
       <c r="A116" s="4">
         <v>2014.0</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C116" s="3">
         <v>33.1</v>
@@ -5994,15 +6342,18 @@
         <v>1.781648554E9</v>
       </c>
       <c r="P116" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q116" s="3">
         <v>9.257542762E8</v>
       </c>
     </row>
-    <row r="117" hidden="1">
+    <row r="117">
       <c r="A117" s="4">
         <v>2015.0</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C117" s="3">
         <v>32.4</v>
@@ -6044,15 +6395,18 @@
         <v>-7.1546513E8</v>
       </c>
       <c r="P117" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q117" s="3">
         <v>9.003195173E8</v>
       </c>
     </row>
-    <row r="118" hidden="1">
+    <row r="118">
       <c r="A118" s="4">
         <v>2016.0</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C118" s="3">
         <v>31.6</v>
@@ -6094,15 +6448,18 @@
         <v>9.257622567E8</v>
       </c>
       <c r="P118" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q118" s="3">
         <v>8.717600439E8</v>
       </c>
     </row>
-    <row r="119" hidden="1">
+    <row r="119">
       <c r="A119" s="4">
         <v>2017.0</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C119" s="3">
         <v>31.0</v>
@@ -6144,15 +6501,18 @@
         <v>1.735775304E9</v>
       </c>
       <c r="P119" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q119" s="3">
         <v>1.098513342E9</v>
       </c>
     </row>
-    <row r="120" hidden="1">
+    <row r="120">
       <c r="A120" s="4">
         <v>2018.0</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C120" s="3">
         <v>30.7</v>
@@ -6194,15 +6554,18 @@
         <v>1.232358348E9</v>
       </c>
       <c r="P120" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q120" s="3">
         <v>8.422567542E8</v>
       </c>
     </row>
-    <row r="121" hidden="1">
+    <row r="121">
       <c r="A121" s="4">
         <v>2019.0</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C121" s="3">
         <v>30.8</v>
@@ -6244,15 +6607,18 @@
         <v>3.071060276E9</v>
       </c>
       <c r="P121" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q121" s="3">
         <v>1.272983037E9</v>
       </c>
     </row>
-    <row r="122" hidden="1">
+    <row r="122">
       <c r="A122" s="3">
         <v>1990.0</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C122" s="5"/>
       <c r="D122" s="3">
@@ -6282,15 +6648,18 @@
         <v>5.53809E8</v>
       </c>
       <c r="P122" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q122" s="3">
         <v>1.018695669E9</v>
       </c>
     </row>
-    <row r="123" hidden="1">
+    <row r="123">
       <c r="A123" s="3">
         <v>1991.0</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C123" s="5"/>
       <c r="D123" s="3">
@@ -6322,15 +6691,18 @@
         <v>1.46214121E9</v>
       </c>
       <c r="P123" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q123" s="3">
         <v>8.921992743E8</v>
       </c>
     </row>
-    <row r="124" hidden="1">
+    <row r="124">
       <c r="A124" s="3">
         <v>1992.0</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C124" s="5"/>
       <c r="D124" s="3">
@@ -6362,15 +6734,18 @@
         <v>1.479165394E9</v>
       </c>
       <c r="P124" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q124" s="3">
         <v>7.534825655E8</v>
       </c>
     </row>
-    <row r="125" hidden="1">
+    <row r="125">
       <c r="A125" s="3">
         <v>1993.0</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C125" s="5"/>
       <c r="D125" s="3">
@@ -6402,15 +6777,18 @@
         <v>2.349715111E9</v>
       </c>
       <c r="P125" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q125" s="3">
         <v>-3.804941626E9</v>
       </c>
     </row>
-    <row r="126" hidden="1">
+    <row r="126">
       <c r="A126" s="3">
         <v>1994.0</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C126" s="5"/>
       <c r="D126" s="3">
@@ -6442,15 +6820,18 @@
         <v>1.14408387E9</v>
       </c>
       <c r="P126" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q126" s="3">
         <v>-3.557049003E9</v>
       </c>
     </row>
-    <row r="127" hidden="1">
+    <row r="127">
       <c r="A127" s="3">
         <v>1995.0</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C127" s="5"/>
       <c r="D127" s="3">
@@ -6490,15 +6871,18 @@
         <v>4.804151332E9</v>
       </c>
       <c r="P127" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q127" s="3">
         <v>-5.316684074E7</v>
       </c>
     </row>
-    <row r="128" hidden="1">
+    <row r="128">
       <c r="A128" s="3">
         <v>1996.0</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C128" s="5"/>
       <c r="D128" s="3">
@@ -6538,15 +6922,18 @@
         <v>3.288936449E9</v>
       </c>
       <c r="P128" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q128" s="3">
         <v>3.372915004E8</v>
       </c>
     </row>
-    <row r="129" hidden="1">
+    <row r="129">
       <c r="A129" s="3">
         <v>1997.0</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C129" s="5"/>
       <c r="D129" s="3">
@@ -6586,15 +6973,18 @@
         <v>4.16412332E9</v>
       </c>
       <c r="P129" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q129" s="3">
         <v>6.273056606E8</v>
       </c>
     </row>
-    <row r="130" hidden="1">
+    <row r="130">
       <c r="A130" s="3">
         <v>1998.0</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C130" s="5"/>
       <c r="D130" s="3">
@@ -6634,15 +7024,18 @@
         <v>3.26165475E9</v>
       </c>
       <c r="P130" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q130" s="3">
         <v>-7.610663729E8</v>
       </c>
     </row>
-    <row r="131" hidden="1">
+    <row r="131">
       <c r="A131" s="3">
         <v>1999.0</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C131" s="5"/>
       <c r="D131" s="3">
@@ -6682,15 +7075,18 @@
         <v>3.384965975E9</v>
       </c>
       <c r="P131" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q131" s="3">
         <v>-1.453683693E9</v>
       </c>
     </row>
-    <row r="132" hidden="1">
+    <row r="132">
       <c r="A132" s="3">
         <v>2000.0</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C132" s="5"/>
       <c r="D132" s="3">
@@ -6730,15 +7126,18 @@
         <v>2.74771256E9</v>
       </c>
       <c r="P132" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q132" s="3">
         <v>-1.757835489E9</v>
       </c>
     </row>
-    <row r="133" hidden="1">
+    <row r="133">
       <c r="A133" s="3">
         <v>2001.0</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C133" s="5"/>
       <c r="D133" s="3">
@@ -6778,15 +7177,18 @@
         <v>4.058819561E9</v>
       </c>
       <c r="P133" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q133" s="3">
         <v>-6.112666592E8</v>
       </c>
     </row>
-    <row r="134" hidden="1">
+    <row r="134">
       <c r="A134" s="3">
         <v>2002.0</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C134" s="5"/>
       <c r="D134" s="3">
@@ -6826,15 +7228,18 @@
         <v>3.64342838E9</v>
       </c>
       <c r="P134" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q134" s="3">
         <v>-1.036386465E9</v>
       </c>
     </row>
-    <row r="135" hidden="1">
+    <row r="135">
       <c r="A135" s="3">
         <v>2003.0</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C135" s="5"/>
       <c r="D135" s="3">
@@ -6874,15 +7279,18 @@
         <v>4.15751042E9</v>
       </c>
       <c r="P135" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q135" s="3">
         <v>-3.299924957E9</v>
       </c>
     </row>
-    <row r="136" hidden="1">
+    <row r="136">
       <c r="A136" s="4">
         <v>2004.0</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C136" s="3">
         <v>27.7</v>
@@ -6924,15 +7332,18 @@
         <v>4.538099567E9</v>
       </c>
       <c r="P136" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q136" s="3">
         <v>-3.324647506E9</v>
       </c>
     </row>
-    <row r="137" hidden="1">
+    <row r="137">
       <c r="A137" s="4">
         <v>2005.0</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C137" s="3">
         <v>27.5</v>
@@ -6974,6 +7385,9 @@
         <v>2.7489690204E10</v>
       </c>
       <c r="P137" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q137" s="3">
         <v>-1.161064742E9</v>
       </c>
     </row>
@@ -6982,7 +7396,7 @@
         <v>2006.0</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C138" s="3">
         <v>27.2</v>
@@ -7024,15 +7438,18 @@
         <v>1.8678720025E10</v>
       </c>
       <c r="P138" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q138" s="3">
         <v>-1.071137191E9</v>
       </c>
     </row>
-    <row r="139" hidden="1">
+    <row r="139">
       <c r="A139" s="4">
         <v>2007.0</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C139" s="3">
         <v>26.8</v>
@@ -7074,15 +7491,18 @@
         <v>7.0631297039E10</v>
       </c>
       <c r="P139" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q139" s="3">
         <v>6.823639471E8</v>
       </c>
     </row>
-    <row r="140" hidden="1">
+    <row r="140">
       <c r="A140" s="4">
         <v>2008.0</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C140" s="3">
         <v>26.5</v>
@@ -7124,15 +7544,18 @@
         <v>7.5107772943E10</v>
       </c>
       <c r="P140" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q140" s="3">
         <v>6.088640744E8</v>
       </c>
     </row>
-    <row r="141" hidden="1">
+    <row r="141">
       <c r="A141" s="4">
         <v>2009.0</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C141" s="3">
         <v>26.8</v>
@@ -7174,15 +7597,18 @@
         <v>-2.792080129E9</v>
       </c>
       <c r="P141" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q141" s="3">
         <v>5.367027414E9</v>
       </c>
     </row>
-    <row r="142" hidden="1">
+    <row r="142">
       <c r="A142" s="4">
         <v>2010.0</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C142" s="3">
         <v>27.0</v>
@@ -7224,15 +7650,18 @@
         <v>-2.077E10</v>
       </c>
       <c r="P142" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q142" s="3">
         <v>6.941965301E9</v>
       </c>
     </row>
-    <row r="143" hidden="1">
+    <row r="143">
       <c r="A143" s="4">
         <v>2011.0</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C143" s="3">
         <v>27.3</v>
@@ -7274,15 +7703,18 @@
         <v>1.0740966551E10</v>
       </c>
       <c r="P143" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q143" s="3">
         <v>8.71815325E9</v>
       </c>
     </row>
-    <row r="144" hidden="1">
+    <row r="144">
       <c r="A144" s="4">
         <v>2012.0</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C144" s="3">
         <v>27.8</v>
@@ -7324,15 +7756,18 @@
         <v>1.0815928328E10</v>
       </c>
       <c r="P144" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q144" s="3">
         <v>8.655417711E9</v>
       </c>
     </row>
-    <row r="145" hidden="1">
+    <row r="145">
       <c r="A145" s="4">
         <v>2013.0</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C145" s="3">
         <v>28.0</v>
@@ -7374,15 +7809,18 @@
         <v>-3.586600505E9</v>
       </c>
       <c r="P145" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q145" s="3">
         <v>9.451224183E9</v>
       </c>
     </row>
-    <row r="146" hidden="1">
+    <row r="146">
       <c r="A146" s="4">
         <v>2014.0</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C146" s="3">
         <v>27.8</v>
@@ -7424,15 +7862,18 @@
         <v>1.3060104659E10</v>
       </c>
       <c r="P146" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q146" s="3">
         <v>8.939090362E9</v>
       </c>
     </row>
-    <row r="147" hidden="1">
+    <row r="147">
       <c r="A147" s="4">
         <v>2015.0</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C147" s="3">
         <v>27.6</v>
@@ -7474,15 +7915,18 @@
         <v>-5.266437315E9</v>
       </c>
       <c r="P147" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q147" s="3">
         <v>9.953574436E9</v>
       </c>
     </row>
-    <row r="148" hidden="1">
+    <row r="148">
       <c r="A148" s="4">
         <v>2016.0</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C148" s="3">
         <v>27.6</v>
@@ -7524,15 +7968,18 @@
         <v>6.9681210262E10</v>
       </c>
       <c r="P148" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q148" s="3">
         <v>1.1180768729E10</v>
       </c>
     </row>
-    <row r="149" hidden="1">
+    <row r="149">
       <c r="A149" s="4">
         <v>2017.0</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C149" s="3">
         <v>27.7</v>
@@ -7574,15 +8021,18 @@
         <v>-1.2133E10</v>
       </c>
       <c r="P149" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q149" s="3">
         <v>9.765624447E9</v>
       </c>
     </row>
-    <row r="150" hidden="1">
+    <row r="150">
       <c r="A150" s="4">
         <v>2018.0</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C150" s="3">
         <v>27.4</v>
@@ -7624,15 +8074,18 @@
         <v>-6.4365E10</v>
       </c>
       <c r="P150" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q150" s="3">
         <v>6.900685311E9</v>
       </c>
     </row>
-    <row r="151" hidden="1">
+    <row r="151">
       <c r="A151" s="4">
         <v>2019.0</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C151" s="3">
         <v>27.3</v>
@@ -7674,15 +8127,18 @@
         <v>9.8463475065E10</v>
       </c>
       <c r="P151" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q151" s="3">
         <v>3.83557231E9</v>
       </c>
     </row>
-    <row r="152" hidden="1">
+    <row r="152">
       <c r="A152" s="3">
         <v>1990.0</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C152" s="5"/>
       <c r="D152" s="3">
@@ -7705,14 +8161,17 @@
       <c r="M152" s="5"/>
       <c r="N152" s="5"/>
       <c r="O152" s="5"/>
-      <c r="P152" s="5"/>
-    </row>
-    <row r="153" hidden="1">
+      <c r="P152" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q152" s="5"/>
+    </row>
+    <row r="153">
       <c r="A153" s="3">
         <v>1991.0</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C153" s="5"/>
       <c r="D153" s="3">
@@ -7739,14 +8198,17 @@
       <c r="M153" s="5"/>
       <c r="N153" s="5"/>
       <c r="O153" s="5"/>
-      <c r="P153" s="5"/>
-    </row>
-    <row r="154" hidden="1">
+      <c r="P153" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q153" s="5"/>
+    </row>
+    <row r="154">
       <c r="A154" s="3">
         <v>1992.0</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C154" s="5"/>
       <c r="D154" s="3">
@@ -7776,15 +8238,18 @@
         <v>3.0703329E7</v>
       </c>
       <c r="P154" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q154" s="3">
         <v>9.3807284E7</v>
       </c>
     </row>
-    <row r="155" hidden="1">
+    <row r="155">
       <c r="A155" s="3">
         <v>1993.0</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C155" s="5"/>
       <c r="D155" s="3">
@@ -7814,15 +8279,18 @@
         <v>5.5933E7</v>
       </c>
       <c r="P155" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q155" s="3">
         <v>3.31695E8</v>
       </c>
     </row>
-    <row r="156" hidden="1">
+    <row r="156">
       <c r="A156" s="3">
         <v>1994.0</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C156" s="5"/>
       <c r="D156" s="3">
@@ -7852,15 +8320,18 @@
         <v>2.82828E8</v>
       </c>
       <c r="P156" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q156" s="3">
         <v>5.9849E7</v>
       </c>
     </row>
-    <row r="157" hidden="1">
+    <row r="157">
       <c r="A157" s="3">
         <v>1995.0</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C157" s="5"/>
       <c r="D157" s="3">
@@ -7900,15 +8371,18 @@
         <v>2.44039E8</v>
       </c>
       <c r="P157" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q157" s="3">
         <v>-1.05545E8</v>
       </c>
     </row>
-    <row r="158" hidden="1">
+    <row r="158">
       <c r="A158" s="3">
         <v>1996.0</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C158" s="5"/>
       <c r="D158" s="3">
@@ -7948,15 +8422,18 @@
         <v>3.31352E8</v>
       </c>
       <c r="P158" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q158" s="3">
         <v>-4.14448E8</v>
       </c>
     </row>
-    <row r="159" hidden="1">
+    <row r="159">
       <c r="A159" s="3">
         <v>1997.0</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C159" s="5"/>
       <c r="D159" s="3">
@@ -7996,15 +8473,18 @@
         <v>4.74354E8</v>
       </c>
       <c r="P159" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q159" s="3">
         <v>-4.77332E8</v>
       </c>
     </row>
-    <row r="160" hidden="1">
+    <row r="160">
       <c r="A160" s="3">
         <v>1998.0</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C160" s="5"/>
       <c r="D160" s="3">
@@ -8044,15 +8524,18 @@
         <v>3.714E8</v>
       </c>
       <c r="P160" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q160" s="3">
         <v>-8.27403E8</v>
       </c>
     </row>
-    <row r="161" hidden="1">
+    <row r="161">
       <c r="A161" s="3">
         <v>1999.0</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C161" s="5"/>
       <c r="D161" s="3">
@@ -8092,15 +8575,18 @@
         <v>3.481E8</v>
       </c>
       <c r="P161" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q161" s="3">
         <v>-6.913E8</v>
       </c>
     </row>
-    <row r="162" hidden="1">
+    <row r="162">
       <c r="A162" s="3">
         <v>2000.0</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C162" s="5"/>
       <c r="D162" s="3">
@@ -8140,15 +8626,18 @@
         <v>3.241848575E8</v>
       </c>
       <c r="P162" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q162" s="3">
         <v>-4.356683932E8</v>
       </c>
     </row>
-    <row r="163" hidden="1">
+    <row r="163">
       <c r="A163" s="3">
         <v>2001.0</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C163" s="5"/>
       <c r="D163" s="3">
@@ -8188,15 +8677,18 @@
         <v>1.735007158E8</v>
       </c>
       <c r="P163" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q163" s="3">
         <v>-6.417503451E8</v>
       </c>
     </row>
-    <row r="164" hidden="1">
+    <row r="164">
       <c r="A164" s="3">
         <v>2002.0</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C164" s="5"/>
       <c r="D164" s="3">
@@ -8236,15 +8728,18 @@
         <v>1.600907022E8</v>
       </c>
       <c r="P164" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q164" s="3">
         <v>-7.696827644E8</v>
       </c>
     </row>
-    <row r="165" hidden="1">
+    <row r="165">
       <c r="A165" s="3">
         <v>2003.0</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C165" s="5"/>
       <c r="D165" s="3">
@@ -8284,15 +8779,18 @@
         <v>3.166521764E8</v>
       </c>
       <c r="P165" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q165" s="3">
         <v>-1.304378201E9</v>
       </c>
     </row>
-    <row r="166" hidden="1">
+    <row r="166">
       <c r="A166" s="4">
         <v>2004.0</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C166" s="3">
         <v>35.0</v>
@@ -8334,15 +8832,18 @@
         <v>5.915899707E8</v>
       </c>
       <c r="P166" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q166" s="3">
         <v>-2.116991637E9</v>
       </c>
     </row>
-    <row r="167" hidden="1">
+    <row r="167">
       <c r="A167" s="4">
         <v>2005.0</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C167" s="3">
         <v>35.4</v>
@@ -8384,6 +8885,9 @@
         <v>8.098563724E8</v>
       </c>
       <c r="P167" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q167" s="3">
         <v>-2.437937342E9</v>
       </c>
     </row>
@@ -8392,7 +8896,7 @@
         <v>2006.0</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C168" s="3">
         <v>35.4</v>
@@ -8434,15 +8938,18 @@
         <v>1.705667384E9</v>
       </c>
       <c r="P168" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q168" s="3">
         <v>-4.448701322E9</v>
       </c>
     </row>
-    <row r="169" hidden="1">
+    <row r="169">
       <c r="A169" s="4">
         <v>2007.0</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C169" s="3">
         <v>35.6</v>
@@ -8484,15 +8991,18 @@
         <v>2.713412662E9</v>
       </c>
       <c r="P169" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q169" s="3">
         <v>-5.712673161E9</v>
       </c>
     </row>
-    <row r="170" hidden="1">
+    <row r="170">
       <c r="A170" s="4">
         <v>2008.0</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C170" s="3">
         <v>35.7</v>
@@ -8534,15 +9044,18 @@
         <v>1.434273758E9</v>
       </c>
       <c r="P170" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q170" s="3">
         <v>-4.265771521E9</v>
       </c>
     </row>
-    <row r="171" hidden="1">
+    <row r="171">
       <c r="A171" s="4">
         <v>2009.0</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C171" s="3">
         <v>35.6</v>
@@ -8584,15 +9097,18 @@
         <v>-1.50022148E8</v>
       </c>
       <c r="P171" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q171" s="3">
         <v>-2.888132469E8</v>
       </c>
     </row>
-    <row r="172" hidden="1">
+    <row r="172">
       <c r="A172" s="4">
         <v>2010.0</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C172" s="3">
         <v>35.6</v>
@@ -8634,15 +9150,18 @@
         <v>4.749835912E8</v>
       </c>
       <c r="P172" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q172" s="3">
         <v>-4.705563476E8</v>
       </c>
     </row>
-    <row r="173" hidden="1">
+    <row r="173">
       <c r="A173" s="4">
         <v>2011.0</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C173" s="3">
         <v>35.5</v>
@@ -8684,15 +9203,18 @@
         <v>1.519518896E9</v>
       </c>
       <c r="P173" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q173" s="3">
         <v>-1.660157662E9</v>
       </c>
     </row>
-    <row r="174" hidden="1">
+    <row r="174">
       <c r="A174" s="4">
         <v>2012.0</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C174" s="3">
         <v>35.3</v>
@@ -8734,15 +9256,18 @@
         <v>1.080778948E9</v>
       </c>
       <c r="P174" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q174" s="3">
         <v>-1.559361831E9</v>
       </c>
     </row>
-    <row r="175" hidden="1">
+    <row r="175">
       <c r="A175" s="4">
         <v>2013.0</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C175" s="3">
         <v>35.2</v>
@@ -8784,15 +9309,18 @@
         <v>9.892838794E8</v>
       </c>
       <c r="P175" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q175" s="3">
         <v>-1.366226219E9</v>
       </c>
     </row>
-    <row r="176" hidden="1">
+    <row r="176">
       <c r="A176" s="4">
         <v>2014.0</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C176" s="3">
         <v>35.0</v>
@@ -8834,15 +9362,18 @@
         <v>1.045107101E9</v>
       </c>
       <c r="P176" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q176" s="3">
         <v>-9.332672044E8</v>
       </c>
     </row>
-    <row r="177" hidden="1">
+    <row r="177">
       <c r="A177" s="4">
         <v>2015.0</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C177" s="3">
         <v>34.8</v>
@@ -8884,15 +9415,18 @@
         <v>8.128438195E8</v>
       </c>
       <c r="P177" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q177" s="3">
         <v>-4.791563072E8</v>
       </c>
     </row>
-    <row r="178" hidden="1">
+    <row r="178">
       <c r="A178" s="4">
         <v>2016.0</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C178" s="3">
         <v>34.7</v>
@@ -8934,15 +9468,18 @@
         <v>3.354209775E8</v>
       </c>
       <c r="P178" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q178" s="3">
         <v>8.569853817E7</v>
       </c>
     </row>
-    <row r="179" hidden="1">
+    <row r="179">
       <c r="A179" s="4">
         <v>2017.0</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C179" s="3">
         <v>34.7</v>
@@ -8984,15 +9521,18 @@
         <v>1.189988063E9</v>
       </c>
       <c r="P179" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q179" s="3">
         <v>-2.033659988E8</v>
       </c>
     </row>
-    <row r="180" hidden="1">
+    <row r="180">
       <c r="A180" s="4">
         <v>2018.0</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C180" s="3">
         <v>34.7</v>
@@ -9034,15 +9574,18 @@
         <v>4.242900645E8</v>
       </c>
       <c r="P180" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q180" s="3">
         <v>-2.303312556E8</v>
       </c>
     </row>
-    <row r="181" hidden="1">
+    <row r="181">
       <c r="A181" s="4">
         <v>2019.0</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C181" s="3">
         <v>34.6</v>
@@ -9084,15 +9627,18 @@
         <v>1.114592059E9</v>
       </c>
       <c r="P181" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q181" s="3">
         <v>-2.304543326E8</v>
       </c>
     </row>
-    <row r="182" hidden="1">
+    <row r="182">
       <c r="A182" s="3">
         <v>1990.0</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C182" s="5"/>
       <c r="D182" s="3">
@@ -9119,14 +9665,17 @@
       <c r="M182" s="5"/>
       <c r="N182" s="5"/>
       <c r="O182" s="5"/>
-      <c r="P182" s="5"/>
-    </row>
-    <row r="183" hidden="1">
+      <c r="P182" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q182" s="5"/>
+    </row>
+    <row r="183">
       <c r="A183" s="3">
         <v>1991.0</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C183" s="5"/>
       <c r="D183" s="3">
@@ -9153,14 +9702,17 @@
       <c r="M183" s="5"/>
       <c r="N183" s="5"/>
       <c r="O183" s="5"/>
-      <c r="P183" s="5"/>
-    </row>
-    <row r="184" hidden="1">
+      <c r="P183" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q183" s="5"/>
+    </row>
+    <row r="184">
       <c r="A184" s="3">
         <v>1992.0</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C184" s="5"/>
       <c r="D184" s="3">
@@ -9189,14 +9741,17 @@
       <c r="O184" s="3">
         <v>1.0E7</v>
       </c>
-      <c r="P184" s="5"/>
-    </row>
-    <row r="185" hidden="1">
+      <c r="P184" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q184" s="5"/>
+    </row>
+    <row r="185">
       <c r="A185" s="3">
         <v>1993.0</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C185" s="5"/>
       <c r="D185" s="3">
@@ -9226,15 +9781,18 @@
         <v>3.017518684E7</v>
       </c>
       <c r="P185" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q185" s="3">
         <v>-2.098042746E8</v>
       </c>
     </row>
-    <row r="186" hidden="1">
+    <row r="186">
       <c r="A186" s="3">
         <v>1994.0</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C186" s="5"/>
       <c r="D186" s="3">
@@ -9266,15 +9824,18 @@
         <v>3.130483764E7</v>
       </c>
       <c r="P186" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q186" s="3">
         <v>-2.593916134E8</v>
       </c>
     </row>
-    <row r="187" hidden="1">
+    <row r="187">
       <c r="A187" s="3">
         <v>1995.0</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C187" s="5"/>
       <c r="D187" s="3">
@@ -9314,15 +9875,18 @@
         <v>7.25575E7</v>
       </c>
       <c r="P187" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q187" s="3">
         <v>-7.10845E8</v>
       </c>
     </row>
-    <row r="188" hidden="1">
+    <row r="188">
       <c r="A188" s="3">
         <v>1996.0</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C188" s="5"/>
       <c r="D188" s="3">
@@ -9362,15 +9926,18 @@
         <v>1.524E8</v>
       </c>
       <c r="P188" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q188" s="3">
         <v>-7.7536E8</v>
       </c>
     </row>
-    <row r="189" hidden="1">
+    <row r="189">
       <c r="A189" s="3">
         <v>1997.0</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C189" s="5"/>
       <c r="D189" s="3">
@@ -9410,15 +9977,18 @@
         <v>3.622875E8</v>
       </c>
       <c r="P189" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q189" s="3">
         <v>-1.01301E9</v>
       </c>
     </row>
-    <row r="190" hidden="1">
+    <row r="190">
       <c r="A190" s="3">
         <v>1998.0</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C190" s="5"/>
       <c r="D190" s="3">
@@ -9458,15 +10028,18 @@
         <v>9.18775E8</v>
       </c>
       <c r="P190" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q190" s="3">
         <v>-1.2778125E9</v>
       </c>
     </row>
-    <row r="191" hidden="1">
+    <row r="191">
       <c r="A191" s="3">
         <v>1999.0</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C191" s="5"/>
       <c r="D191" s="3">
@@ -9506,15 +10079,18 @@
         <v>5.645375E8</v>
       </c>
       <c r="P191" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q191" s="3">
         <v>-1.0991825E9</v>
       </c>
     </row>
-    <row r="192" hidden="1">
+    <row r="192">
       <c r="A192" s="3">
         <v>2000.0</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C192" s="5"/>
       <c r="D192" s="3">
@@ -9554,15 +10130,18 @@
         <v>3.802725E8</v>
       </c>
       <c r="P192" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q192" s="3">
         <v>-7.23685E8</v>
       </c>
     </row>
-    <row r="193" hidden="1">
+    <row r="193">
       <c r="A193" s="3">
         <v>2001.0</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C193" s="5"/>
       <c r="D193" s="3">
@@ -9602,15 +10181,18 @@
         <v>4.424E8</v>
       </c>
       <c r="P193" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q193" s="3">
         <v>-6.5135E8</v>
       </c>
     </row>
-    <row r="194" hidden="1">
+    <row r="194">
       <c r="A194" s="3">
         <v>2002.0</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C194" s="5"/>
       <c r="D194" s="3">
@@ -9650,15 +10232,18 @@
         <v>6.607904979E8</v>
       </c>
       <c r="P194" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q194" s="3">
         <v>-7.661208113E8</v>
       </c>
     </row>
-    <row r="195" hidden="1">
+    <row r="195">
       <c r="A195" s="3">
         <v>2003.0</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C195" s="5"/>
       <c r="D195" s="3">
@@ -9698,15 +10283,18 @@
         <v>2.173988399E8</v>
       </c>
       <c r="P195" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q195" s="3">
         <v>-1.089789248E9</v>
       </c>
     </row>
-    <row r="196" hidden="1">
+    <row r="196">
       <c r="A196" s="4">
         <v>2004.0</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C196" s="3">
         <v>33.6</v>
@@ -9748,15 +10336,18 @@
         <v>8.795407458E8</v>
       </c>
       <c r="P196" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q196" s="3">
         <v>-1.598121431E9</v>
       </c>
     </row>
-    <row r="197" hidden="1">
+    <row r="197">
       <c r="A197" s="4">
         <v>2005.0</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C197" s="3">
         <v>33.6</v>
@@ -9798,6 +10389,9 @@
         <v>1.292550784E9</v>
       </c>
       <c r="P197" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q197" s="3">
         <v>-1.868987718E9</v>
       </c>
     </row>
@@ -9806,7 +10400,7 @@
         <v>2006.0</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C198" s="3">
         <v>33.2</v>
@@ -9848,15 +10442,18 @@
         <v>2.259381845E9</v>
       </c>
       <c r="P198" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q198" s="3">
         <v>-3.115787811E9</v>
       </c>
     </row>
-    <row r="199" hidden="1">
+    <row r="199">
       <c r="A199" s="4">
         <v>2007.0</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C199" s="3">
         <v>33.4</v>
@@ -9898,15 +10495,18 @@
         <v>2.601486958E9</v>
       </c>
       <c r="P199" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q199" s="3">
         <v>-5.220795622E9</v>
       </c>
     </row>
-    <row r="200" hidden="1">
+    <row r="200">
       <c r="A200" s="4">
         <v>2008.0</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C200" s="3">
         <v>33.9</v>
@@ -9948,15 +10548,18 @@
         <v>1.727292156E9</v>
       </c>
       <c r="P200" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q200" s="3">
         <v>-5.654887515E9</v>
       </c>
     </row>
-    <row r="201" hidden="1">
+    <row r="201">
       <c r="A201" s="4">
         <v>2009.0</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C201" s="3">
         <v>34.0</v>
@@ -9998,15 +10601,18 @@
         <v>-3.60197701E8</v>
       </c>
       <c r="P201" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q201" s="3">
         <v>-6.503430115E8</v>
       </c>
     </row>
-    <row r="202" hidden="1">
+    <row r="202">
       <c r="A202" s="4">
         <v>2010.0</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C202" s="3">
         <v>33.6</v>
@@ -10048,15 +10654,18 @@
         <v>1.102696147E9</v>
       </c>
       <c r="P202" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q202" s="3">
         <v>-7.471700315E8</v>
       </c>
     </row>
-    <row r="203" hidden="1">
+    <row r="203">
       <c r="A203" s="4">
         <v>2011.0</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C203" s="3">
         <v>33.6</v>
@@ -10098,15 +10707,18 @@
         <v>1.880811089E9</v>
       </c>
       <c r="P203" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q203" s="3">
         <v>-1.165213981E9</v>
       </c>
     </row>
-    <row r="204" hidden="1">
+    <row r="204">
       <c r="A204" s="4">
         <v>2012.0</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C204" s="3">
         <v>34.3</v>
@@ -10148,15 +10760,18 @@
         <v>6.771827597E8</v>
       </c>
       <c r="P204" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q204" s="3">
         <v>2.528984786E8</v>
       </c>
     </row>
-    <row r="205" hidden="1">
+    <row r="205">
       <c r="A205" s="4">
         <v>2013.0</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C205" s="3">
         <v>34.9</v>
@@ -10198,15 +10813,18 @@
         <v>7.68657972E8</v>
       </c>
       <c r="P205" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q205" s="3">
         <v>6.698782595E8</v>
       </c>
     </row>
-    <row r="206" hidden="1">
+    <row r="206">
       <c r="A206" s="4">
         <v>2014.0</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C206" s="3">
         <v>35.4</v>
@@ -10248,15 +10866,18 @@
         <v>3.573232162E8</v>
       </c>
       <c r="P206" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q206" s="3">
         <v>8.745221159E8</v>
       </c>
     </row>
-    <row r="207" hidden="1">
+    <row r="207">
       <c r="A207" s="4">
         <v>2015.0</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C207" s="3">
         <v>35.8</v>
@@ -10298,15 +10919,18 @@
         <v>1.036954106E9</v>
       </c>
       <c r="P207" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q207" s="3">
         <v>-4.175042077E8</v>
       </c>
     </row>
-    <row r="208" hidden="1">
+    <row r="208">
       <c r="A208" s="4">
         <v>2016.0</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C208" s="3">
         <v>36.0</v>
@@ -10348,15 +10972,18 @@
         <v>1.177533776E9</v>
       </c>
       <c r="P208" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q208" s="3">
         <v>3.035922411E8</v>
       </c>
     </row>
-    <row r="209" hidden="1">
+    <row r="209">
       <c r="A209" s="4">
         <v>2017.0</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C209" s="3">
         <v>36.0</v>
@@ -10398,15 +11025,18 @@
         <v>1.383731106E9</v>
       </c>
       <c r="P209" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q209" s="3">
         <v>1.130249613E9</v>
       </c>
     </row>
-    <row r="210" hidden="1">
+    <row r="210">
       <c r="A210" s="4">
         <v>2018.0</v>
       </c>
       <c r="B210" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C210" s="3">
         <v>35.7</v>
@@ -10448,15 +11078,18 @@
         <v>1.299841764E9</v>
       </c>
       <c r="P210" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q210" s="3">
         <v>9.588211082E8</v>
       </c>
     </row>
-    <row r="211" hidden="1">
+    <row r="211">
       <c r="A211" s="4">
         <v>2019.0</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C211" s="3">
         <v>35.2</v>
@@ -10498,15 +11131,18 @@
         <v>3.43429931E9</v>
       </c>
       <c r="P211" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q211" s="3">
         <v>2.903528624E9</v>
       </c>
     </row>
-    <row r="212" hidden="1">
+    <row r="212">
       <c r="A212" s="3">
         <v>2000.0</v>
       </c>
       <c r="B212" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D212" s="3">
         <v>0.42</v>
@@ -10545,15 +11181,18 @@
         <v>2.175070992E8</v>
       </c>
       <c r="P212" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q212" s="3">
         <v>-6.421257001E8</v>
       </c>
     </row>
-    <row r="213" hidden="1">
+    <row r="213">
       <c r="A213" s="3">
         <v>2001.0</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D213" s="3">
         <v>0.44</v>
@@ -10592,15 +11231,18 @@
         <v>4.695707064E8</v>
       </c>
       <c r="P213" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q213" s="3">
         <v>-5.458935591E8</v>
       </c>
     </row>
-    <row r="214" hidden="1">
+    <row r="214">
       <c r="A214" s="3">
         <v>2002.0</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D214" s="3">
         <v>0.43</v>
@@ -10639,15 +11281,18 @@
         <v>1.141934714E8</v>
       </c>
       <c r="P214" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q214" s="3">
         <v>-8.276910317E8</v>
       </c>
     </row>
-    <row r="215" hidden="1">
+    <row r="215">
       <c r="A215" s="3">
         <v>2003.0</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D215" s="3">
         <v>0.43</v>
@@ -10686,15 +11331,18 @@
         <v>1.190417532E8</v>
       </c>
       <c r="P215" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q215" s="3">
         <v>-8.552172928E8</v>
       </c>
     </row>
-    <row r="216" hidden="1">
+    <row r="216">
       <c r="A216" s="4">
         <v>2004.0</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C216" s="3">
         <v>34.0</v>
@@ -10736,15 +11384,18 @@
         <v>3.091376385E8</v>
       </c>
       <c r="P216" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q216" s="3">
         <v>-1.189733167E9</v>
       </c>
     </row>
-    <row r="217" hidden="1">
+    <row r="217">
       <c r="A217" s="4">
         <v>2005.0</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C217" s="3">
         <v>34.6</v>
@@ -10786,15 +11437,18 @@
         <v>1.453296015E8</v>
       </c>
       <c r="P217" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q217" s="3">
         <v>-1.093903653E9</v>
       </c>
     </row>
-    <row r="218" hidden="1">
+    <row r="218">
       <c r="A218" s="4">
         <v>2006.0</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C218" s="3">
         <v>35.0</v>
@@ -10836,15 +11490,18 @@
         <v>4.274445893E8</v>
       </c>
       <c r="P218" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q218" s="3">
         <v>-1.226509436E9</v>
       </c>
     </row>
-    <row r="219" hidden="1">
+    <row r="219">
       <c r="A219" s="4">
         <v>2007.0</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C219" s="3">
         <v>35.2</v>
@@ -10886,15 +11543,18 @@
         <v>7.33466879E8</v>
       </c>
       <c r="P219" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q219" s="3">
         <v>-1.588287899E9</v>
       </c>
     </row>
-    <row r="220" hidden="1">
+    <row r="220">
       <c r="A220" s="4">
         <v>2008.0</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C220" s="3">
         <v>35.3</v>
@@ -10936,15 +11596,18 @@
         <v>6.116883786E8</v>
       </c>
       <c r="P220" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q220" s="3">
         <v>-2.562426418E9</v>
       </c>
     </row>
-    <row r="221" hidden="1">
+    <row r="221">
       <c r="A221" s="4">
         <v>2009.0</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C221" s="3">
         <v>35.3</v>
@@ -10986,15 +11649,18 @@
         <v>2.595303215E8</v>
       </c>
       <c r="P221" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q221" s="3">
         <v>-2.13652599E9</v>
       </c>
     </row>
-    <row r="222" hidden="1">
+    <row r="222">
       <c r="A222" s="4">
         <v>2010.0</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C222" s="3">
         <v>35.0</v>
@@ -11036,15 +11702,18 @@
         <v>3.014416817E8</v>
       </c>
       <c r="P222" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q222" s="3">
         <v>-1.856959108E9</v>
       </c>
     </row>
-    <row r="223" hidden="1">
+    <row r="223">
       <c r="A223" s="4">
         <v>2011.0</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C223" s="3">
         <v>34.7</v>
@@ -11086,15 +11755,18 @@
         <v>5.079207328E8</v>
       </c>
       <c r="P223" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q223" s="3">
         <v>-2.140371836E9</v>
       </c>
     </row>
-    <row r="224" hidden="1">
+    <row r="224">
       <c r="A224" s="4">
         <v>2012.0</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C224" s="3">
         <v>34.2</v>
@@ -11136,15 +11808,18 @@
         <v>3.379112482E8</v>
       </c>
       <c r="P224" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q224" s="3">
         <v>-2.190294311E9</v>
       </c>
     </row>
-    <row r="225" hidden="1">
+    <row r="225">
       <c r="A225" s="4">
         <v>2013.0</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C225" s="3">
         <v>33.7</v>
@@ -11186,15 +11861,18 @@
         <v>4.024583098E8</v>
       </c>
       <c r="P225" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q225" s="3">
         <v>-1.976433126E9</v>
       </c>
     </row>
-    <row r="226" hidden="1">
+    <row r="226">
       <c r="A226" s="4">
         <v>2014.0</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C226" s="3">
         <v>33.2</v>
@@ -11236,15 +11914,18 @@
         <v>6.087991545E7</v>
       </c>
       <c r="P226" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q226" s="3">
         <v>-1.963060753E9</v>
       </c>
     </row>
-    <row r="227" hidden="1">
+    <row r="227">
       <c r="A227" s="4">
         <v>2015.0</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C227" s="3">
         <v>32.8</v>
@@ -11286,15 +11967,18 @@
         <v>2.966042004E8</v>
       </c>
       <c r="P227" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q227" s="3">
         <v>-1.631227768E9</v>
       </c>
     </row>
-    <row r="228" hidden="1">
+    <row r="228">
       <c r="A228" s="4">
         <v>2016.0</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C228" s="3">
         <v>32.4</v>
@@ -11336,15 +12020,18 @@
         <v>5.493711016E8</v>
       </c>
       <c r="P228" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q228" s="3">
         <v>-1.630959009E9</v>
       </c>
     </row>
-    <row r="229" hidden="1">
+    <row r="229">
       <c r="A229" s="4">
         <v>2017.0</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C229" s="3">
         <v>32.0</v>
@@ -11386,15 +12073,18 @@
         <v>3.807389775E8</v>
       </c>
       <c r="P229" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q229" s="3">
         <v>-1.588372813E9</v>
       </c>
     </row>
-    <row r="230" hidden="1">
+    <row r="230">
       <c r="A230" s="4">
         <v>2018.0</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C230" s="3">
         <v>31.8</v>
@@ -11436,15 +12126,18 @@
         <v>6.48732425E8</v>
       </c>
       <c r="P230" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q230" s="3">
         <v>-1.612255273E9</v>
       </c>
     </row>
-    <row r="231" hidden="1">
+    <row r="231">
       <c r="A231" s="4">
         <v>2019.0</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C231" s="3">
         <v>31.7</v>
@@ -11486,15 +12179,18 @@
         <v>5.495008299E8</v>
       </c>
       <c r="P231" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q231" s="3">
         <v>-1.805080889E9</v>
       </c>
     </row>
-    <row r="232" hidden="1">
+    <row r="232">
       <c r="A232" s="3">
         <v>2000.0</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C232" s="5"/>
       <c r="D232" s="3">
@@ -11534,15 +12230,18 @@
         <v>1.2754E8</v>
       </c>
       <c r="P232" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q232" s="3">
         <v>-3.3053E8</v>
       </c>
     </row>
-    <row r="233" hidden="1">
+    <row r="233">
       <c r="A233" s="3">
         <v>2001.0</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C233" s="5"/>
       <c r="D233" s="3">
@@ -11582,15 +12281,18 @@
         <v>1.0344E8</v>
       </c>
       <c r="P233" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q233" s="3">
         <v>-3.5294E8</v>
       </c>
     </row>
-    <row r="234" hidden="1">
+    <row r="234">
       <c r="A234" s="3">
         <v>2002.0</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C234" s="5"/>
       <c r="D234" s="3">
@@ -11630,15 +12332,18 @@
         <v>8.405E7</v>
       </c>
       <c r="P234" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q234" s="3">
         <v>-4.1814E8</v>
       </c>
     </row>
-    <row r="235" hidden="1">
+    <row r="235">
       <c r="A235" s="3">
         <v>2003.0</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C235" s="5"/>
       <c r="D235" s="3">
@@ -11678,15 +12383,18 @@
         <v>7.375E7</v>
       </c>
       <c r="P235" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q235" s="3">
         <v>-6.673E8</v>
       </c>
     </row>
-    <row r="236" hidden="1">
+    <row r="236">
       <c r="A236" s="4">
         <v>2004.0</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C236" s="3">
         <v>37.6</v>
@@ -11728,15 +12436,18 @@
         <v>1.5101E8</v>
       </c>
       <c r="P236" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q236" s="3">
         <v>-7.7514E8</v>
       </c>
     </row>
-    <row r="237" hidden="1">
+    <row r="237">
       <c r="A237" s="4">
         <v>2005.0</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C237" s="3">
         <v>37.5</v>
@@ -11778,15 +12489,18 @@
         <v>1.907E8</v>
       </c>
       <c r="P237" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q237" s="3">
         <v>-1.21224E9</v>
       </c>
     </row>
-    <row r="238" hidden="1">
+    <row r="238">
       <c r="A238" s="4">
         <v>2006.0</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C238" s="3">
         <v>37.3</v>
@@ -11828,15 +12542,18 @@
         <v>2.5868E8</v>
       </c>
       <c r="P238" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q238" s="3">
         <v>-1.60324E9</v>
       </c>
     </row>
-    <row r="239" hidden="1">
+    <row r="239">
       <c r="A239" s="4">
         <v>2007.0</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C239" s="3">
         <v>37.0</v>
@@ -11878,15 +12595,18 @@
         <v>5.3602E8</v>
       </c>
       <c r="P239" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q239" s="3">
         <v>-2.31979E9</v>
       </c>
     </row>
-    <row r="240" hidden="1">
+    <row r="240">
       <c r="A240" s="4">
         <v>2008.0</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C240" s="3">
         <v>36.5</v>
@@ -11928,15 +12648,18 @@
         <v>7.2661E8</v>
       </c>
       <c r="P240" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q240" s="3">
         <v>-3.21916E9</v>
       </c>
     </row>
-    <row r="241" hidden="1">
+    <row r="241">
       <c r="A241" s="4">
         <v>2009.0</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C241" s="3">
         <v>36.1</v>
@@ -11978,15 +12701,18 @@
         <v>2.6396E8</v>
       </c>
       <c r="P241" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q241" s="3">
         <v>-1.99858E9</v>
       </c>
     </row>
-    <row r="242" hidden="1">
+    <row r="242">
       <c r="A242" s="4">
         <v>2010.0</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C242" s="3">
         <v>35.5</v>
@@ -12028,15 +12754,18 @@
         <v>2.9705E8</v>
       </c>
       <c r="P242" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q242" s="3">
         <v>-2.25549875E9</v>
       </c>
     </row>
-    <row r="243" hidden="1">
+    <row r="243">
       <c r="A243" s="4">
         <v>2011.0</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C243" s="3">
         <v>34.7</v>
@@ -12078,15 +12807,18 @@
         <v>3.7288E8</v>
       </c>
       <c r="P243" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q243" s="3">
         <v>-2.825503938E9</v>
       </c>
     </row>
-    <row r="244" hidden="1">
+    <row r="244">
       <c r="A244" s="4">
         <v>2012.0</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C244" s="3">
         <v>34.1</v>
@@ -12128,15 +12860,18 @@
         <v>2.512E8</v>
       </c>
       <c r="P244" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q244" s="3">
         <v>-2.95996E9</v>
       </c>
     </row>
-    <row r="245" hidden="1">
+    <row r="245">
       <c r="A245" s="4">
         <v>2013.0</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C245" s="3">
         <v>33.2</v>
@@ -12178,15 +12913,18 @@
         <v>2.4188E8</v>
       </c>
       <c r="P245" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q245" s="3">
         <v>-2.98636E9</v>
       </c>
     </row>
-    <row r="246" hidden="1">
+    <row r="246">
       <c r="A246" s="4">
         <v>2014.0</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C246" s="3">
         <v>32.5</v>
@@ -12228,15 +12966,18 @@
         <v>3.459E8</v>
       </c>
       <c r="P246" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q246" s="3">
         <v>-2.91356E9</v>
       </c>
     </row>
-    <row r="247" hidden="1">
+    <row r="247">
       <c r="A247" s="4">
         <v>2015.0</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C247" s="3">
         <v>31.9</v>
@@ -12278,15 +13019,18 @@
         <v>2.2587E8</v>
       </c>
       <c r="P247" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q247" s="3">
         <v>-1.99146E9</v>
       </c>
     </row>
-    <row r="248" hidden="1">
+    <row r="248">
       <c r="A248" s="4">
         <v>2016.0</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C248" s="3">
         <v>31.5</v>
@@ -12328,15 +13072,18 @@
         <v>8.744E7</v>
       </c>
       <c r="P248" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q248" s="3">
         <v>-1.8581E9</v>
       </c>
     </row>
-    <row r="249" hidden="1">
+    <row r="249">
       <c r="A249" s="4">
         <v>2017.0</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C249" s="3">
         <v>31.2</v>
@@ -12378,15 +13125,18 @@
         <v>1.4952E8</v>
       </c>
       <c r="P249" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q249" s="3">
         <v>-2.25456E9</v>
       </c>
     </row>
-    <row r="250" hidden="1">
+    <row r="250">
       <c r="A250" s="4">
         <v>2018.0</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C250" s="3">
         <v>31.0</v>
@@ -12428,15 +13178,18 @@
         <v>3.0964E8</v>
       </c>
       <c r="P250" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q250" s="3">
         <v>-2.93801E9</v>
       </c>
     </row>
-    <row r="251" hidden="1">
+    <row r="251">
       <c r="A251" s="4">
         <v>2019.0</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C251" s="3">
         <v>31.0</v>
@@ -12478,15 +13231,18 @@
         <v>5.2137E8</v>
       </c>
       <c r="P251" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q251" s="3">
         <v>-2.94616E9</v>
       </c>
     </row>
-    <row r="252" hidden="1">
+    <row r="252">
       <c r="A252" s="3">
         <v>1990.0</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C252" s="5"/>
       <c r="D252" s="3">
@@ -12518,15 +13274,18 @@
         <v>8.9E7</v>
       </c>
       <c r="P252" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q252" s="3">
         <v>3.942E9</v>
       </c>
     </row>
-    <row r="253" hidden="1">
+    <row r="253">
       <c r="A253" s="3">
         <v>1991.0</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C253" s="5"/>
       <c r="D253" s="3">
@@ -12558,15 +13317,18 @@
         <v>2.91E8</v>
       </c>
       <c r="P253" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q253" s="3">
         <v>-1.8E7</v>
       </c>
     </row>
-    <row r="254" hidden="1">
+    <row r="254">
       <c r="A254" s="3">
         <v>1992.0</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C254" s="5"/>
       <c r="D254" s="3">
@@ -12600,15 +13362,18 @@
         <v>6.78E8</v>
       </c>
       <c r="P254" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q254" s="3">
         <v>5.97E8</v>
       </c>
     </row>
-    <row r="255" hidden="1">
+    <row r="255">
       <c r="A255" s="3">
         <v>1993.0</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C255" s="5"/>
       <c r="D255" s="3">
@@ -12642,15 +13407,18 @@
         <v>1.715E9</v>
       </c>
       <c r="P255" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q255" s="3">
         <v>-2.935E9</v>
       </c>
     </row>
-    <row r="256" hidden="1">
+    <row r="256">
       <c r="A256" s="3">
         <v>1994.0</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C256" s="5"/>
       <c r="D256" s="3">
@@ -12686,15 +13454,18 @@
         <v>1.875E9</v>
       </c>
       <c r="P256" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q256" s="3">
         <v>1.945E9</v>
       </c>
     </row>
-    <row r="257" hidden="1">
+    <row r="257">
       <c r="A257" s="3">
         <v>1995.0</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C257" s="5"/>
       <c r="D257" s="3">
@@ -12734,15 +13505,18 @@
         <v>3.659E9</v>
       </c>
       <c r="P257" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q257" s="3">
         <v>1.891E9</v>
       </c>
     </row>
-    <row r="258" hidden="1">
+    <row r="258">
       <c r="A258" s="3">
         <v>1996.0</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C258" s="5"/>
       <c r="D258" s="3">
@@ -12782,15 +13556,18 @@
         <v>4.5E9</v>
       </c>
       <c r="P258" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q258" s="3">
         <v>-3.883E9</v>
       </c>
     </row>
-    <row r="259" hidden="1">
+    <row r="259">
       <c r="A259" s="3">
         <v>1997.0</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C259" s="5"/>
       <c r="D259" s="3">
@@ -12830,15 +13607,18 @@
         <v>4.91E9</v>
       </c>
       <c r="P259" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q259" s="3">
         <v>-6.65E9</v>
       </c>
     </row>
-    <row r="260" hidden="1">
+    <row r="260">
       <c r="A260" s="3">
         <v>1998.0</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C260" s="5"/>
       <c r="D260" s="3">
@@ -12878,15 +13658,18 @@
         <v>6.383E9</v>
       </c>
       <c r="P260" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q260" s="3">
         <v>-8.62E9</v>
       </c>
     </row>
-    <row r="261" hidden="1">
+    <row r="261">
       <c r="A261" s="3">
         <v>1999.0</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C261" s="5"/>
       <c r="D261" s="3">
@@ -12926,15 +13709,18 @@
         <v>7.407E9</v>
       </c>
       <c r="P261" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q261" s="3">
         <v>-1.3691E10</v>
       </c>
     </row>
-    <row r="262" hidden="1">
+    <row r="262">
       <c r="A262" s="3">
         <v>2000.0</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C262" s="5"/>
       <c r="D262" s="3">
@@ -12974,15 +13760,18 @@
         <v>9.335E9</v>
       </c>
       <c r="P262" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q262" s="3">
         <v>-1.0904E10</v>
       </c>
     </row>
-    <row r="263" hidden="1">
+    <row r="263">
       <c r="A263" s="3">
         <v>2001.0</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C263" s="5"/>
       <c r="D263" s="3">
@@ -13022,15 +13811,18 @@
         <v>5.677E9</v>
       </c>
       <c r="P263" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q263" s="3">
         <v>-6.876E9</v>
       </c>
     </row>
-    <row r="264" hidden="1">
+    <row r="264">
       <c r="A264" s="3">
         <v>2002.0</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C264" s="5"/>
       <c r="D264" s="3">
@@ -13070,15 +13862,18 @@
         <v>4.091E9</v>
       </c>
       <c r="P264" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q264" s="3">
         <v>-6.474E9</v>
       </c>
     </row>
-    <row r="265" hidden="1">
+    <row r="265">
       <c r="A265" s="3">
         <v>2003.0</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C265" s="5"/>
       <c r="D265" s="3">
@@ -13118,15 +13913,18 @@
         <v>5.371E9</v>
       </c>
       <c r="P265" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q265" s="3">
         <v>-5.482E9</v>
       </c>
     </row>
-    <row r="266" hidden="1">
+    <row r="266">
       <c r="A266" s="4">
         <v>2004.0</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C266" s="3">
         <v>31.3</v>
@@ -13168,15 +13966,18 @@
         <v>1.3868E10</v>
       </c>
       <c r="P266" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q266" s="3">
         <v>-7.235E9</v>
       </c>
     </row>
-    <row r="267" hidden="1">
+    <row r="267">
       <c r="A267" s="4">
         <v>2005.0</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C267" s="3">
         <v>31.4</v>
@@ -13218,6 +14019,9 @@
         <v>1.1041E10</v>
       </c>
       <c r="P267" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q267" s="3">
         <v>-3.851E9</v>
       </c>
     </row>
@@ -13226,7 +14030,7 @@
         <v>2006.0</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C268" s="3">
         <v>31.2</v>
@@ -13268,15 +14072,18 @@
         <v>2.1473E10</v>
       </c>
       <c r="P268" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q268" s="3">
         <v>-8.293E9</v>
       </c>
     </row>
-    <row r="269" hidden="1">
+    <row r="269">
       <c r="A269" s="4">
         <v>2007.0</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C269" s="3">
         <v>31.2</v>
@@ -13318,15 +14125,18 @@
         <v>2.5031E10</v>
       </c>
       <c r="P269" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q269" s="3">
         <v>-1.6514E10</v>
       </c>
     </row>
-    <row r="270" hidden="1">
+    <row r="270">
       <c r="A270" s="4">
         <v>2008.0</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C270" s="3">
         <v>31.1</v>
@@ -13368,15 +14178,18 @@
         <v>1.4574E10</v>
       </c>
       <c r="P270" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q270" s="3">
         <v>-2.833E10</v>
       </c>
     </row>
-    <row r="271" hidden="1">
+    <row r="271">
       <c r="A271" s="4">
         <v>2009.0</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C271" s="3">
         <v>31.1</v>
@@ -13418,15 +14231,18 @@
         <v>1.4025E10</v>
       </c>
       <c r="P271" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q271" s="3">
         <v>-4.376E9</v>
       </c>
     </row>
-    <row r="272" hidden="1">
+    <row r="272">
       <c r="A272" s="4">
         <v>2010.0</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C272" s="3">
         <v>31.2</v>
@@ -13468,15 +14284,18 @@
         <v>1.8542E10</v>
       </c>
       <c r="P272" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q272" s="3">
         <v>-1.1708E10</v>
       </c>
     </row>
-    <row r="273" hidden="1">
+    <row r="273">
       <c r="A273" s="4">
         <v>2011.0</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C273" s="3">
         <v>31.4</v>
@@ -13518,15 +14337,18 @@
         <v>1.8309E10</v>
       </c>
       <c r="P273" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q273" s="3">
         <v>-1.2041E10</v>
       </c>
     </row>
-    <row r="274" hidden="1">
+    <row r="274">
       <c r="A274" s="4">
         <v>2012.0</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C274" s="3">
         <v>31.6</v>
@@ -13568,15 +14390,18 @@
         <v>7.18E9</v>
       </c>
       <c r="P274" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q274" s="3">
         <v>-3.941E9</v>
       </c>
     </row>
-    <row r="275" hidden="1">
+    <row r="275">
       <c r="A275" s="4">
         <v>2013.0</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C275" s="3">
         <v>31.6</v>
@@ -13618,15 +14443,18 @@
         <v>1.029E9</v>
       </c>
       <c r="P275" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q275" s="3">
         <v>5.756E9</v>
       </c>
     </row>
-    <row r="276" hidden="1">
+    <row r="276">
       <c r="A276" s="4">
         <v>2014.0</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C276" s="3">
         <v>31.2</v>
@@ -13668,15 +14496,18 @@
         <v>2.0455E10</v>
       </c>
       <c r="P276" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q276" s="3">
         <v>2.264E9</v>
       </c>
     </row>
-    <row r="277" hidden="1">
+    <row r="277">
       <c r="A277" s="4">
         <v>2015.0</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C277" s="3">
         <v>30.4</v>
@@ -13718,15 +14549,18 @@
         <v>1.5598E10</v>
       </c>
       <c r="P277" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q277" s="3">
         <v>9.911E9</v>
       </c>
     </row>
-    <row r="278" hidden="1">
+    <row r="278">
       <c r="A278" s="4">
         <v>2016.0</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C278" s="3">
         <v>29.2</v>
@@ -13768,15 +14602,18 @@
         <v>1.775E10</v>
       </c>
       <c r="P278" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q278" s="3">
         <v>1.3977E10</v>
       </c>
     </row>
-    <row r="279" hidden="1">
+    <row r="279">
       <c r="A279" s="4">
         <v>2017.0</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C279" s="3">
         <v>29.0</v>
@@ -13818,15 +14655,18 @@
         <v>1.1999E10</v>
       </c>
       <c r="P279" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q279" s="3">
         <v>1.4865E10</v>
       </c>
     </row>
-    <row r="280" hidden="1">
+    <row r="280">
       <c r="A280" s="4">
         <v>2018.0</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C280" s="3">
         <v>29.2</v>
@@ -13868,15 +14708,18 @@
         <v>1.9204E10</v>
       </c>
       <c r="P280" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q280" s="3">
         <v>1.21E10</v>
       </c>
     </row>
-    <row r="281" hidden="1">
+    <row r="281">
       <c r="A281" s="4">
         <v>2019.0</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C281" s="3">
         <v>29.3</v>
@@ -13918,15 +14761,18 @@
         <v>1.7619E10</v>
       </c>
       <c r="P281" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q281" s="3">
         <v>2.2065E10</v>
       </c>
     </row>
-    <row r="282" hidden="1">
+    <row r="282">
       <c r="A282" s="3">
         <v>2000.0</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C282" s="5"/>
       <c r="D282" s="3">
@@ -13966,15 +14812,18 @@
         <v>1.037E9</v>
       </c>
       <c r="P282" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q282" s="3">
         <v>-1.93E9</v>
       </c>
     </row>
-    <row r="283" hidden="1">
+    <row r="283">
       <c r="A283" s="3">
         <v>2001.0</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C283" s="5"/>
       <c r="D283" s="3">
@@ -14014,15 +14863,18 @@
         <v>1.157E9</v>
       </c>
       <c r="P283" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q283" s="3">
         <v>-3.09E9</v>
       </c>
     </row>
-    <row r="284" hidden="1">
+    <row r="284">
       <c r="A284" s="3">
         <v>2002.0</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C284" s="5"/>
       <c r="D284" s="3">
@@ -14062,15 +14914,18 @@
         <v>1.144E9</v>
       </c>
       <c r="P284" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q284" s="3">
         <v>-2.602E9</v>
       </c>
     </row>
-    <row r="285" hidden="1">
+    <row r="285">
       <c r="A285" s="3">
         <v>2003.0</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C285" s="5"/>
       <c r="D285" s="3">
@@ -14110,15 +14965,18 @@
         <v>1.844E9</v>
       </c>
       <c r="P285" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q285" s="3">
         <v>-4.467E9</v>
       </c>
     </row>
-    <row r="286" hidden="1">
+    <row r="286">
       <c r="A286" s="4">
         <v>2004.0</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C286" s="3">
         <v>31.1</v>
@@ -14160,15 +15018,18 @@
         <v>6.443E9</v>
       </c>
       <c r="P286" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q286" s="3">
         <v>-6.93E9</v>
       </c>
     </row>
-    <row r="287" hidden="1">
+    <row r="287">
       <c r="A287" s="4">
         <v>2005.0</v>
       </c>
       <c r="B287" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C287" s="3">
         <v>32.0</v>
@@ -14210,6 +15071,9 @@
         <v>6.498650463E9</v>
       </c>
       <c r="P287" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q287" s="3">
         <v>-1.0073167533E10</v>
       </c>
     </row>
@@ -14218,7 +15082,7 @@
         <v>2006.0</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C288" s="3">
         <v>33.0</v>
@@ -14260,15 +15124,18 @@
         <v>1.1006614842E10</v>
       </c>
       <c r="P288" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q288" s="3">
         <v>-1.5033618153E10</v>
       </c>
     </row>
-    <row r="289" hidden="1">
+    <row r="289">
       <c r="A289" s="4">
         <v>2007.0</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C289" s="3">
         <v>33.2</v>
@@ -14310,15 +15177,18 @@
         <v>1.0103086514E10</v>
       </c>
       <c r="P289" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q289" s="3">
         <v>-2.4811183193E10</v>
       </c>
     </row>
-    <row r="290" hidden="1">
+    <row r="290">
       <c r="A290" s="4">
         <v>2008.0</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C290" s="3">
         <v>32.9</v>
@@ -14360,15 +15230,18 @@
         <v>1.3667824245E10</v>
       </c>
       <c r="P290" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q290" s="3">
         <v>-2.8102429498E10</v>
       </c>
     </row>
-    <row r="291" hidden="1">
+    <row r="291">
       <c r="A291" s="4">
         <v>2009.0</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C291" s="3">
         <v>32.5</v>
@@ -14410,15 +15283,18 @@
         <v>4.63768488E9</v>
       </c>
       <c r="P291" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q291" s="3">
         <v>-1.1289682062E10</v>
       </c>
     </row>
-    <row r="292" hidden="1">
+    <row r="292">
       <c r="A292" s="4">
         <v>2010.0</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C292" s="3">
         <v>32.5</v>
@@ -14460,15 +15336,18 @@
         <v>3.213737652E9</v>
       </c>
       <c r="P292" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q292" s="3">
         <v>-1.0755417173E10</v>
       </c>
     </row>
-    <row r="293" hidden="1">
+    <row r="293">
       <c r="A293" s="4">
         <v>2011.0</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C293" s="3">
         <v>32.6</v>
@@ -14510,15 +15389,18 @@
         <v>2.370097223E9</v>
       </c>
       <c r="P293" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q293" s="3">
         <v>-1.0786737151E10</v>
       </c>
     </row>
-    <row r="294" hidden="1">
+    <row r="294">
       <c r="A294" s="4">
         <v>2012.0</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C294" s="3">
         <v>32.8</v>
@@ -14560,15 +15442,18 @@
         <v>3.047569714E9</v>
       </c>
       <c r="P294" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q294" s="3">
         <v>-8.705665054E9</v>
       </c>
     </row>
-    <row r="295" hidden="1">
+    <row r="295">
       <c r="A295" s="4">
         <v>2013.0</v>
       </c>
       <c r="B295" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C295" s="3">
         <v>33.1</v>
@@ -14610,15 +15495,18 @@
         <v>3.854819398E9</v>
       </c>
       <c r="P295" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q295" s="3">
         <v>-1.72461873E9</v>
       </c>
     </row>
-    <row r="296" hidden="1">
+    <row r="296">
       <c r="A296" s="4">
         <v>2014.0</v>
       </c>
       <c r="B296" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C296" s="3">
         <v>33.6</v>
@@ -14660,15 +15548,18 @@
         <v>3.869197075E9</v>
       </c>
       <c r="P296" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q296" s="3">
         <v>-7.836498064E8</v>
       </c>
     </row>
-    <row r="297" hidden="1">
+    <row r="297">
       <c r="A297" s="4">
         <v>2015.0</v>
       </c>
       <c r="B297" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C297" s="3">
         <v>33.5</v>
@@ -14710,15 +15601,18 @@
         <v>4.317731472E9</v>
       </c>
       <c r="P297" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q297" s="3">
         <v>-1.444882299E9</v>
       </c>
     </row>
-    <row r="298" hidden="1">
+    <row r="298">
       <c r="A298" s="4">
         <v>2016.0</v>
       </c>
       <c r="B298" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C298" s="3">
         <v>33.2</v>
@@ -14760,15 +15654,18 @@
         <v>6.252035766E9</v>
       </c>
       <c r="P298" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q298" s="3">
         <v>-1.946138882E9</v>
       </c>
     </row>
-    <row r="299" hidden="1">
+    <row r="299">
       <c r="A299" s="4">
         <v>2017.0</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C299" s="3">
         <v>33.4</v>
@@ -14810,15 +15707,18 @@
         <v>5.952909608E9</v>
       </c>
       <c r="P299" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q299" s="3">
         <v>-5.303643905E9</v>
       </c>
     </row>
-    <row r="300" hidden="1">
+    <row r="300">
       <c r="A300" s="4">
         <v>2018.0</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C300" s="3">
         <v>33.4</v>
@@ -14860,15 +15760,18 @@
         <v>7.343560129E9</v>
       </c>
       <c r="P300" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q300" s="3">
         <v>-8.157208508E9</v>
       </c>
     </row>
-    <row r="301" hidden="1">
+    <row r="301">
       <c r="A301" s="4">
         <v>2019.0</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C301" s="3">
         <v>33.4</v>
@@ -14910,15 +15813,18 @@
         <v>7.365441774E9</v>
       </c>
       <c r="P301" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q301" s="3">
         <v>-1.0282427908E10</v>
       </c>
     </row>
-    <row r="302" hidden="1">
+    <row r="302">
       <c r="A302" s="3">
         <v>2000.0</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C302" s="5"/>
       <c r="D302" s="3">
@@ -14958,15 +15864,18 @@
         <v>2.67803E9</v>
       </c>
       <c r="P302" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q302" s="3">
         <v>5.204952E10</v>
       </c>
     </row>
-    <row r="303" hidden="1">
+    <row r="303">
       <c r="A303" s="3">
         <v>2001.0</v>
       </c>
       <c r="B303" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C303" s="5"/>
       <c r="D303" s="3">
@@ -15006,15 +15915,18 @@
         <v>2.8473E9</v>
       </c>
       <c r="P303" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q303" s="3">
         <v>3.716046E10</v>
       </c>
     </row>
-    <row r="304" hidden="1">
+    <row r="304">
       <c r="A304" s="3">
         <v>2002.0</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C304" s="5"/>
       <c r="D304" s="3">
@@ -15054,15 +15966,18 @@
         <v>3.47383E9</v>
       </c>
       <c r="P304" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q304" s="3">
         <v>3.480765E10</v>
       </c>
     </row>
-    <row r="305" hidden="1">
+    <row r="305">
       <c r="A305" s="3">
         <v>2003.0</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C305" s="5"/>
       <c r="D305" s="3">
@@ -15102,15 +16017,18 @@
         <v>7.92863E9</v>
       </c>
       <c r="P305" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q305" s="3">
         <v>4.66841E10</v>
       </c>
     </row>
-    <row r="306" hidden="1">
+    <row r="306">
       <c r="A306" s="4">
         <v>2004.0</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C306" s="3">
         <v>37.5</v>
@@ -15152,15 +16070,18 @@
         <v>1.540299E10</v>
       </c>
       <c r="P306" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q306" s="3">
         <v>7.233237E10</v>
       </c>
     </row>
-    <row r="307" hidden="1">
+    <row r="307">
       <c r="A307" s="4">
         <v>2005.0</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C307" s="3">
         <v>37.4</v>
@@ -15201,16 +16122,19 @@
       <c r="O307" s="3">
         <v>1.550805E10</v>
       </c>
-      <c r="P307" s="6">
+      <c r="P307" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q307" s="6">
         <v>1.0456E11</v>
       </c>
     </row>
-    <row r="308" hidden="1">
+    <row r="308">
       <c r="A308" s="4">
         <v>2006.0</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C308" s="3">
         <v>37.3</v>
@@ -15251,16 +16175,19 @@
       <c r="O308" s="3">
         <v>3.759477E10</v>
       </c>
-      <c r="P308" s="6">
+      <c r="P308" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q308" s="6">
         <v>1.2374E11</v>
       </c>
     </row>
-    <row r="309" hidden="1">
+    <row r="309">
       <c r="A309" s="4">
         <v>2007.0</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C309" s="3">
         <v>36.8</v>
@@ -15301,16 +16228,19 @@
       <c r="O309" s="3">
         <v>5.587368E10</v>
       </c>
-      <c r="P309" s="6">
+      <c r="P309" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q309" s="6">
         <v>1.06729E11</v>
       </c>
     </row>
-    <row r="310" hidden="1">
+    <row r="310">
       <c r="A310" s="4">
         <v>2008.0</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C310" s="3">
         <v>37.2</v>
@@ -15351,16 +16281,19 @@
       <c r="O310" s="3">
         <v>7.478291E10</v>
       </c>
-      <c r="P310" s="6">
+      <c r="P310" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q310" s="6">
         <v>1.57206E11</v>
       </c>
     </row>
-    <row r="311" hidden="1">
+    <row r="311">
       <c r="A311" s="4">
         <v>2009.0</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C311" s="3">
         <v>36.6</v>
@@ -15402,15 +16335,18 @@
         <v>3.65831E10</v>
       </c>
       <c r="P311" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q311" s="3">
         <v>9.563027E10</v>
       </c>
     </row>
-    <row r="312" hidden="1">
+    <row r="312">
       <c r="A312" s="4">
         <v>2010.0</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C312" s="3">
         <v>35.9</v>
@@ -15451,16 +16387,19 @@
       <c r="O312" s="3">
         <v>4.316778E10</v>
       </c>
-      <c r="P312" s="6">
+      <c r="P312" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q312" s="6">
         <v>1.20875E11</v>
       </c>
     </row>
-    <row r="313" hidden="1">
+    <row r="313">
       <c r="A313" s="4">
         <v>2011.0</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C313" s="3">
         <v>35.7</v>
@@ -15501,16 +16440,19 @@
       <c r="O313" s="3">
         <v>5.508363E10</v>
       </c>
-      <c r="P313" s="6">
+      <c r="P313" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q313" s="6">
         <v>1.63398E11</v>
       </c>
     </row>
-    <row r="314" hidden="1">
+    <row r="314">
       <c r="A314" s="4">
         <v>2012.0</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C314" s="3">
         <v>35.3</v>
@@ -15551,16 +16493,19 @@
       <c r="O314" s="3">
         <v>5.058756E10</v>
       </c>
-      <c r="P314" s="6">
+      <c r="P314" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q314" s="6">
         <v>1.45076E11</v>
       </c>
     </row>
-    <row r="315" hidden="1">
+    <row r="315">
       <c r="A315" s="4">
         <v>2013.0</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C315" s="3">
         <v>34.7</v>
@@ -15601,16 +16546,19 @@
       <c r="O315" s="3">
         <v>6.921889E10</v>
       </c>
-      <c r="P315" s="6">
+      <c r="P315" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q315" s="6">
         <v>1.22307E11</v>
       </c>
     </row>
-    <row r="316" hidden="1">
+    <row r="316">
       <c r="A316" s="4">
         <v>2014.0</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C316" s="3">
         <v>34.0</v>
@@ -15651,16 +16599,19 @@
       <c r="O316" s="3">
         <v>2.203134E10</v>
       </c>
-      <c r="P316" s="6">
+      <c r="P316" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q316" s="6">
         <v>1.33653E11</v>
       </c>
     </row>
-    <row r="317" hidden="1">
+    <row r="317">
       <c r="A317" s="4">
         <v>2015.0</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C317" s="3">
         <v>33.4</v>
@@ -15701,16 +16652,19 @@
       <c r="O317" s="3">
         <v>6.85297E9</v>
       </c>
-      <c r="P317" s="6">
+      <c r="P317" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q317" s="6">
         <v>1.11246E11</v>
       </c>
     </row>
-    <row r="318" hidden="1">
+    <row r="318">
       <c r="A318" s="4">
         <v>2016.0</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C318" s="3">
         <v>33.0</v>
@@ -15752,15 +16706,18 @@
         <v>3.25389E10</v>
       </c>
       <c r="P318" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q318" s="3">
         <v>6.625605E10</v>
       </c>
     </row>
-    <row r="319" hidden="1">
+    <row r="319">
       <c r="A319" s="4">
         <v>2017.0</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C319" s="3">
         <v>32.4</v>
@@ -15802,15 +16759,18 @@
         <v>2.855744E10</v>
       </c>
       <c r="P319" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q319" s="3">
         <v>8.323475E10</v>
       </c>
     </row>
-    <row r="320" hidden="1">
+    <row r="320">
       <c r="A320" s="4">
         <v>2018.0</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C320" s="3">
         <v>32.4</v>
@@ -15851,16 +16811,19 @@
       <c r="O320" s="3">
         <v>8.78485E9</v>
       </c>
-      <c r="P320" s="6">
+      <c r="P320" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q320" s="6">
         <v>1.64976E11</v>
       </c>
     </row>
-    <row r="321" hidden="1">
+    <row r="321">
       <c r="A321" s="4">
         <v>2019.0</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C321" s="3">
         <v>32.7</v>
@@ -15901,16 +16864,19 @@
       <c r="O321" s="3">
         <v>3.197477E10</v>
       </c>
-      <c r="P321" s="6">
+      <c r="P321" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q321" s="6">
         <v>1.29328E11</v>
       </c>
     </row>
-    <row r="322" hidden="1">
+    <row r="322">
       <c r="A322" s="3">
         <v>1990.0</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C322" s="5"/>
       <c r="D322" s="3">
@@ -15939,14 +16905,17 @@
         <v>12.92013</v>
       </c>
       <c r="O322" s="5"/>
-      <c r="P322" s="5"/>
-    </row>
-    <row r="323" hidden="1">
+      <c r="P322" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q322" s="5"/>
+    </row>
+    <row r="323">
       <c r="A323" s="3">
         <v>1991.0</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C323" s="5"/>
       <c r="D323" s="3">
@@ -15975,14 +16944,17 @@
         <v>12.54579</v>
       </c>
       <c r="O323" s="5"/>
-      <c r="P323" s="5"/>
-    </row>
-    <row r="324" hidden="1">
+      <c r="P323" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q323" s="5"/>
+    </row>
+    <row r="324">
       <c r="A324" s="3">
         <v>1992.0</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C324" s="5"/>
       <c r="D324" s="3">
@@ -16013,14 +16985,17 @@
         <v>12.18229</v>
       </c>
       <c r="O324" s="5"/>
-      <c r="P324" s="5"/>
-    </row>
-    <row r="325" hidden="1">
+      <c r="P324" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q324" s="5"/>
+    </row>
+    <row r="325">
       <c r="A325" s="3">
         <v>1993.0</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C325" s="5"/>
       <c r="D325" s="3">
@@ -16056,15 +17031,18 @@
         <v>1.988342619E8</v>
       </c>
       <c r="P325" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q325" s="3">
         <v>-6.398156524E8</v>
       </c>
     </row>
-    <row r="326" hidden="1">
+    <row r="326">
       <c r="A326" s="3">
         <v>1994.0</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C326" s="5"/>
       <c r="D326" s="3">
@@ -16100,15 +17078,18 @@
         <v>2.698777662E8</v>
       </c>
       <c r="P326" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q326" s="3">
         <v>7.223863476E8</v>
       </c>
     </row>
-    <row r="327" hidden="1">
+    <row r="327">
       <c r="A327" s="3">
         <v>1995.0</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C327" s="5"/>
       <c r="D327" s="3">
@@ -16148,15 +17129,18 @@
         <v>2.361329792E8</v>
       </c>
       <c r="P327" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q327" s="3">
         <v>3.112293448E8</v>
       </c>
     </row>
-    <row r="328" hidden="1">
+    <row r="328">
       <c r="A328" s="3">
         <v>1996.0</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C328" s="5"/>
       <c r="D328" s="3">
@@ -16196,15 +17180,18 @@
         <v>3.5082624E8</v>
       </c>
       <c r="P328" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q328" s="3">
         <v>-2.244614405E9</v>
       </c>
     </row>
-    <row r="329" hidden="1">
+    <row r="329">
       <c r="A329" s="3">
         <v>1997.0</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C329" s="5"/>
       <c r="D329" s="3">
@@ -16244,15 +17231,18 @@
         <v>1.767067768E8</v>
       </c>
       <c r="P329" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q329" s="3">
         <v>-2.011356105E9</v>
       </c>
     </row>
-    <row r="330" hidden="1">
+    <row r="330">
       <c r="A330" s="3">
         <v>1998.0</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C330" s="5"/>
       <c r="D330" s="3">
@@ -16292,15 +17282,18 @@
         <v>6.466123544E8</v>
       </c>
       <c r="P330" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q330" s="3">
         <v>-2.334234279E9</v>
       </c>
     </row>
-    <row r="331" hidden="1">
+    <row r="331">
       <c r="A331" s="3">
         <v>1999.0</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C331" s="5"/>
       <c r="D331" s="3">
@@ -16340,15 +17333,18 @@
         <v>3.388952063E8</v>
       </c>
       <c r="P331" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q331" s="3">
         <v>-1.053706301E9</v>
       </c>
     </row>
-    <row r="332" hidden="1">
+    <row r="332">
       <c r="A332" s="3">
         <v>2000.0</v>
       </c>
       <c r="B332" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C332" s="5"/>
       <c r="D332" s="3">
@@ -16388,15 +17384,18 @@
         <v>2.183119136E9</v>
       </c>
       <c r="P332" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q332" s="3">
         <v>-4.590327942E8</v>
       </c>
     </row>
-    <row r="333" hidden="1">
+    <row r="333">
       <c r="A333" s="3">
         <v>2001.0</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C333" s="5"/>
       <c r="D333" s="3">
@@ -16436,15 +17435,18 @@
         <v>1.532584052E9</v>
       </c>
       <c r="P333" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q333" s="3">
         <v>-1.644062765E9</v>
       </c>
     </row>
-    <row r="334" hidden="1">
+    <row r="334">
       <c r="A334" s="3">
         <v>2002.0</v>
       </c>
       <c r="B334" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C334" s="5"/>
       <c r="D334" s="3">
@@ -16484,15 +17486,18 @@
         <v>4.212437461E9</v>
       </c>
       <c r="P334" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q334" s="3">
         <v>-1.704770079E9</v>
       </c>
     </row>
-    <row r="335" hidden="1">
+    <row r="335">
       <c r="A335" s="3">
         <v>2003.0</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C335" s="5"/>
       <c r="D335" s="3">
@@ -16532,15 +17537,18 @@
         <v>9.692005189E8</v>
       </c>
       <c r="P335" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q335" s="3">
         <v>-4.077993146E8</v>
       </c>
     </row>
-    <row r="336" hidden="1">
+    <row r="336">
       <c r="A336" s="4">
         <v>2004.0</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C336" s="3">
         <v>23.5</v>
@@ -16582,15 +17590,18 @@
         <v>4.063498785E9</v>
       </c>
       <c r="P336" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q336" s="3">
         <v>-1.738016962E9</v>
       </c>
     </row>
-    <row r="337" hidden="1">
+    <row r="337">
       <c r="A337" s="4">
         <v>2005.0</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C337" s="3">
         <v>23.8</v>
@@ -16632,6 +17643,9 @@
         <v>3.923508331E9</v>
       </c>
       <c r="P337" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q337" s="3">
         <v>-2.652504895E9</v>
       </c>
     </row>
@@ -16640,7 +17654,7 @@
         <v>2006.0</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C338" s="3">
         <v>23.7</v>
@@ -16682,15 +17696,18 @@
         <v>5.701436727E9</v>
       </c>
       <c r="P338" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q338" s="3">
         <v>-2.333414267E9</v>
       </c>
     </row>
-    <row r="339" hidden="1">
+    <row r="339">
       <c r="A339" s="4">
         <v>2007.0</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C339" s="3">
         <v>23.4</v>
@@ -16732,15 +17749,18 @@
         <v>5.058234422E9</v>
       </c>
       <c r="P339" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q339" s="3">
         <v>-6.155798291E8</v>
       </c>
     </row>
-    <row r="340" hidden="1">
+    <row r="340">
       <c r="A340" s="4">
         <v>2008.0</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C340" s="3">
         <v>23.5</v>
@@ -16782,15 +17802,18 @@
         <v>4.640891412E9</v>
       </c>
       <c r="P340" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q340" s="3">
         <v>-2.236270617E9</v>
       </c>
     </row>
-    <row r="341" hidden="1">
+    <row r="341">
       <c r="A341" s="4">
         <v>2009.0</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C341" s="3">
         <v>24.2</v>
@@ -16832,15 +17855,18 @@
         <v>1.521083444E9</v>
       </c>
       <c r="P341" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q341" s="3">
         <v>-8.637930984E8</v>
       </c>
     </row>
-    <row r="342" hidden="1">
+    <row r="342">
       <c r="A342" s="4">
         <v>2010.0</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C342" s="3">
         <v>24.8</v>
@@ -16882,15 +17908,18 @@
         <v>2.11583296E9</v>
       </c>
       <c r="P342" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q342" s="3">
         <v>-9.70887816E8</v>
       </c>
     </row>
-    <row r="343" hidden="1">
+    <row r="343">
       <c r="A343" s="4">
         <v>2011.0</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C343" s="3">
         <v>24.9</v>
@@ -16932,15 +17961,18 @@
         <v>5.431592592E9</v>
       </c>
       <c r="P343" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q343" s="3">
         <v>-4.629901606E8</v>
       </c>
     </row>
-    <row r="344" hidden="1">
+    <row r="344">
       <c r="A344" s="4">
         <v>2012.0</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C344" s="3">
         <v>25.6</v>
@@ -16982,15 +18014,18 @@
         <v>1.776566141E9</v>
       </c>
       <c r="P344" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q344" s="3">
         <v>3.766024391E9</v>
       </c>
     </row>
-    <row r="345" hidden="1">
+    <row r="345">
       <c r="A345" s="4">
         <v>2013.0</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C345" s="3">
         <v>25.4</v>
@@ -17032,15 +18067,18 @@
         <v>1.003901609E9</v>
       </c>
       <c r="P345" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q345" s="3">
         <v>4.474170163E9</v>
       </c>
     </row>
-    <row r="346" hidden="1">
+    <row r="346">
       <c r="A346" s="4">
         <v>2014.0</v>
       </c>
       <c r="B346" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C346" s="3">
         <v>25.2</v>
@@ -17082,15 +18120,18 @@
         <v>-3.62908483E8</v>
       </c>
       <c r="P346" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q346" s="3">
         <v>3.943564821E9</v>
       </c>
     </row>
-    <row r="347" hidden="1">
+    <row r="347">
       <c r="A347" s="4">
         <v>2015.0</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C347" s="3">
         <v>25.2</v>
@@ -17132,15 +18173,18 @@
         <v>1.520387926E9</v>
       </c>
       <c r="P347" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q347" s="3">
         <v>1.034342372E9</v>
       </c>
     </row>
-    <row r="348" hidden="1">
+    <row r="348">
       <c r="A348" s="4">
         <v>2016.0</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C348" s="3">
         <v>24.7</v>
@@ -17182,15 +18226,18 @@
         <v>4.742874364E9</v>
       </c>
       <c r="P348" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q348" s="3">
         <v>1.83659231E9</v>
       </c>
     </row>
-    <row r="349" hidden="1">
+    <row r="349">
       <c r="A349" s="4">
         <v>2017.0</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C349" s="3">
         <v>24.4</v>
@@ -17232,15 +18279,18 @@
         <v>4.225581974E9</v>
       </c>
       <c r="P349" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q349" s="3">
         <v>1.657330187E9</v>
       </c>
     </row>
-    <row r="350" hidden="1">
+    <row r="350">
       <c r="A350" s="4">
         <v>2018.0</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C350" s="3">
         <v>24.3</v>
@@ -17282,15 +18332,18 @@
         <v>2.250850832E9</v>
       </c>
       <c r="P350" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q350" s="3">
         <v>8.472850927E8</v>
       </c>
     </row>
-    <row r="351" hidden="1">
+    <row r="351">
       <c r="A351" s="4">
         <v>2019.0</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C351" s="3">
         <v>24.2</v>
@@ -17332,15 +18385,18 @@
         <v>2.279811254E9</v>
       </c>
       <c r="P351" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q351" s="3">
         <v>1.03361005E8</v>
       </c>
     </row>
-    <row r="352" hidden="1">
+    <row r="352">
       <c r="A352" s="3">
         <v>1990.0</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C352" s="5"/>
       <c r="D352" s="3">
@@ -17367,14 +18423,17 @@
       <c r="M352" s="5"/>
       <c r="N352" s="5"/>
       <c r="O352" s="5"/>
-      <c r="P352" s="5"/>
-    </row>
-    <row r="353" hidden="1">
+      <c r="P352" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q352" s="5"/>
+    </row>
+    <row r="353">
       <c r="A353" s="3">
         <v>1991.0</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C353" s="5"/>
       <c r="D353" s="3">
@@ -17403,14 +18462,17 @@
       </c>
       <c r="N353" s="5"/>
       <c r="O353" s="5"/>
-      <c r="P353" s="5"/>
-    </row>
-    <row r="354" hidden="1">
+      <c r="P353" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q353" s="5"/>
+    </row>
+    <row r="354">
       <c r="A354" s="3">
         <v>1992.0</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C354" s="5"/>
       <c r="D354" s="3">
@@ -17442,15 +18504,18 @@
         <v>1.11E8</v>
       </c>
       <c r="P354" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q354" s="3">
         <v>9.706E8</v>
       </c>
     </row>
-    <row r="355" hidden="1">
+    <row r="355">
       <c r="A355" s="3">
         <v>1993.0</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C355" s="5"/>
       <c r="D355" s="3">
@@ -17484,15 +18549,18 @@
         <v>1.126E8</v>
       </c>
       <c r="P355" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q355" s="3">
         <v>2.205E8</v>
       </c>
     </row>
-    <row r="356" hidden="1">
+    <row r="356">
       <c r="A356" s="3">
         <v>1994.0</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C356" s="5"/>
       <c r="D356" s="3">
@@ -17526,15 +18594,18 @@
         <v>1.169E8</v>
       </c>
       <c r="P356" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q356" s="3">
         <v>3.063E8</v>
       </c>
     </row>
-    <row r="357" hidden="1">
+    <row r="357">
       <c r="A357" s="3">
         <v>1995.0</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C357" s="5"/>
       <c r="D357" s="3">
@@ -17574,15 +18645,18 @@
         <v>1.504E8</v>
       </c>
       <c r="P357" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q357" s="3">
         <v>-3.716E8</v>
       </c>
     </row>
-    <row r="358" hidden="1">
+    <row r="358">
       <c r="A358" s="3">
         <v>1996.0</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C358" s="5"/>
       <c r="D358" s="3">
@@ -17622,15 +18696,18 @@
         <v>1.733E8</v>
       </c>
       <c r="P358" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q358" s="3">
         <v>-1.857E8</v>
       </c>
     </row>
-    <row r="359" hidden="1">
+    <row r="359">
       <c r="A359" s="3">
         <v>1997.0</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C359" s="5"/>
       <c r="D359" s="3">
@@ -17670,15 +18747,18 @@
         <v>3.345E8</v>
       </c>
       <c r="P359" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q359" s="3">
         <v>-1.387E8</v>
       </c>
     </row>
-    <row r="360" hidden="1">
+    <row r="360">
       <c r="A360" s="3">
         <v>1998.0</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C360" s="5"/>
       <c r="D360" s="3">
@@ -17718,15 +18798,18 @@
         <v>2.157E8</v>
       </c>
       <c r="P360" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q360" s="3">
         <v>-2.919E8</v>
       </c>
     </row>
-    <row r="361" hidden="1">
+    <row r="361">
       <c r="A361" s="3">
         <v>1999.0</v>
       </c>
       <c r="B361" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C361" s="5"/>
       <c r="D361" s="3">
@@ -17766,15 +18849,18 @@
         <v>1.066E8</v>
       </c>
       <c r="P361" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q361" s="3">
         <v>-8.803E8</v>
       </c>
     </row>
-    <row r="362" hidden="1">
+    <row r="362">
       <c r="A362" s="3">
         <v>2000.0</v>
       </c>
       <c r="B362" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C362" s="5"/>
       <c r="D362" s="3">
@@ -17814,15 +18900,18 @@
         <v>1.358E8</v>
       </c>
       <c r="P362" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q362" s="3">
         <v>-6.893E8</v>
       </c>
     </row>
-    <row r="363" hidden="1">
+    <row r="363">
       <c r="A363" s="3">
         <v>2001.0</v>
       </c>
       <c r="B363" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C363" s="5"/>
       <c r="D363" s="3">
@@ -17862,15 +18951,18 @@
         <v>5.012E8</v>
       </c>
       <c r="P363" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q363" s="3">
         <v>-1.171E8</v>
       </c>
     </row>
-    <row r="364" hidden="1">
+    <row r="364">
       <c r="A364" s="3">
         <v>2002.0</v>
       </c>
       <c r="B364" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C364" s="5"/>
       <c r="D364" s="3">
@@ -17910,15 +19002,18 @@
         <v>1.8498E9</v>
       </c>
       <c r="P364" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q364" s="3">
         <v>3.36E8</v>
       </c>
     </row>
-    <row r="365" hidden="1">
+    <row r="365">
       <c r="A365" s="3">
         <v>2003.0</v>
       </c>
       <c r="B365" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C365" s="5"/>
       <c r="D365" s="3">
@@ -17958,15 +19053,18 @@
         <v>5.356E8</v>
       </c>
       <c r="P365" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q365" s="3">
         <v>-1.41E7</v>
       </c>
     </row>
-    <row r="366" hidden="1">
+    <row r="366">
       <c r="A366" s="4">
         <v>2004.0</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C366" s="3">
         <v>26.6</v>
@@ -18008,15 +19106,18 @@
         <v>7.631E8</v>
       </c>
       <c r="P366" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q366" s="3">
         <v>-4.06E8</v>
       </c>
     </row>
-    <row r="367" hidden="1">
+    <row r="367">
       <c r="A367" s="4">
         <v>2005.0</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C367" s="3">
         <v>26.6</v>
@@ -18058,6 +19159,9 @@
         <v>9.708E8</v>
       </c>
       <c r="P367" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q367" s="3">
         <v>-1.976E8</v>
       </c>
     </row>
@@ -18066,7 +19170,7 @@
         <v>2006.0</v>
       </c>
       <c r="B368" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C368" s="3">
         <v>25.5</v>
@@ -18108,15 +19212,18 @@
         <v>6.920215517E8</v>
       </c>
       <c r="P368" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q368" s="3">
         <v>8.466607748E7</v>
       </c>
     </row>
-    <row r="369" hidden="1">
+    <row r="369">
       <c r="A369" s="4">
         <v>2007.0</v>
       </c>
       <c r="B369" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C369" s="3">
         <v>25.1</v>
@@ -18158,15 +19265,18 @@
         <v>1.884506373E9</v>
       </c>
       <c r="P369" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q369" s="3">
         <v>-5.977485788E8</v>
       </c>
     </row>
-    <row r="370" hidden="1">
+    <row r="370">
       <c r="A370" s="4">
         <v>2008.0</v>
       </c>
       <c r="B370" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C370" s="3">
         <v>25.1</v>
@@ -18208,15 +19318,18 @@
         <v>1.080741792E9</v>
       </c>
       <c r="P370" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q370" s="3">
         <v>-1.012134994E9</v>
       </c>
     </row>
-    <row r="371" hidden="1">
+    <row r="371">
       <c r="A371" s="4">
         <v>2009.0</v>
       </c>
       <c r="B371" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C371" s="3">
         <v>25.6</v>
@@ -18258,15 +19371,18 @@
         <v>-3.46971373E8</v>
       </c>
       <c r="P371" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q371" s="3">
         <v>6.993960737E8</v>
       </c>
     </row>
-    <row r="372" hidden="1">
+    <row r="372">
       <c r="A372" s="4">
         <v>2010.0</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C372" s="3">
         <v>25.7</v>
@@ -18308,15 +19424,18 @@
         <v>3.191439326E8</v>
       </c>
       <c r="P372" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q372" s="3">
         <v>4.214476231E8</v>
       </c>
     </row>
-    <row r="373" hidden="1">
+    <row r="373">
       <c r="A373" s="4">
         <v>2011.0</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C373" s="3">
         <v>25.3</v>
@@ -18358,15 +19477,18 @@
         <v>8.759463377E8</v>
       </c>
       <c r="P373" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q373" s="3">
         <v>2.935268716E8</v>
       </c>
     </row>
-    <row r="374" hidden="1">
+    <row r="374">
       <c r="A374" s="4">
         <v>2012.0</v>
       </c>
       <c r="B374" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C374" s="3">
         <v>25.0</v>
@@ -18408,15 +19530,18 @@
         <v>3.353788949E7</v>
       </c>
       <c r="P374" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q374" s="3">
         <v>1.453938722E9</v>
       </c>
     </row>
-    <row r="375" hidden="1">
+    <row r="375">
       <c r="A375" s="4">
         <v>2013.0</v>
       </c>
       <c r="B375" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C375" s="3">
         <v>25.3</v>
@@ -18458,15 +19583,18 @@
         <v>1.040227166E8</v>
       </c>
       <c r="P375" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q375" s="3">
         <v>2.82551054E9</v>
       </c>
     </row>
-    <row r="376" hidden="1">
+    <row r="376">
       <c r="A376" s="4">
         <v>2014.0</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C376" s="3">
         <v>24.8</v>
@@ -18508,15 +19636,18 @@
         <v>1.019380613E9</v>
       </c>
       <c r="P376" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q376" s="3">
         <v>3.506288764E9</v>
       </c>
     </row>
-    <row r="377" hidden="1">
+    <row r="377">
       <c r="A377" s="4">
         <v>2015.0</v>
       </c>
       <c r="B377" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C377" s="3">
         <v>24.3</v>
@@ -18558,15 +19689,18 @@
         <v>1.730147099E9</v>
       </c>
       <c r="P377" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q377" s="3">
         <v>3.463352515E9</v>
       </c>
     </row>
-    <row r="378" hidden="1">
+    <row r="378">
       <c r="A378" s="4">
         <v>2016.0</v>
       </c>
       <c r="B378" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C378" s="3">
         <v>23.5</v>
@@ -18608,15 +19742,18 @@
         <v>1.446274235E9</v>
       </c>
       <c r="P378" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q378" s="3">
         <v>3.841628577E9</v>
       </c>
     </row>
-    <row r="379" hidden="1">
+    <row r="379">
       <c r="A379" s="4">
         <v>2017.0</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C379" s="3">
         <v>22.8</v>
@@ -18658,15 +19795,18 @@
         <v>1.196228605E9</v>
       </c>
       <c r="P379" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q379" s="3">
         <v>4.384568564E9</v>
       </c>
     </row>
-    <row r="380" hidden="1">
+    <row r="380">
       <c r="A380" s="4">
         <v>2018.0</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C380" s="3">
         <v>22.9</v>
@@ -18708,15 +19848,18 @@
         <v>1.538137615E9</v>
       </c>
       <c r="P380" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q380" s="3">
         <v>4.599383028E9</v>
       </c>
     </row>
-    <row r="381" hidden="1">
+    <row r="381">
       <c r="A381" s="4">
         <v>2019.0</v>
       </c>
       <c r="B381" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C381" s="3">
         <v>22.4</v>
@@ -18758,15 +19901,18 @@
         <v>2.151537534E9</v>
       </c>
       <c r="P381" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="Q381" s="3">
         <v>4.707361504E9</v>
       </c>
     </row>
-    <row r="382" hidden="1">
+    <row r="382">
       <c r="A382" s="3">
         <v>2000.0</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C382" s="5"/>
       <c r="D382" s="3">
@@ -18806,15 +19952,18 @@
         <v>5.95E8</v>
       </c>
       <c r="P382" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q382" s="3">
         <v>1.436E9</v>
       </c>
     </row>
-    <row r="383" hidden="1">
+    <row r="383">
       <c r="A383" s="3">
         <v>2001.0</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C383" s="5"/>
       <c r="D383" s="3">
@@ -18854,15 +20003,18 @@
         <v>7.92E8</v>
       </c>
       <c r="P383" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q383" s="3">
         <v>5.35E8</v>
       </c>
     </row>
-    <row r="384" hidden="1">
+    <row r="384">
       <c r="A384" s="3">
         <v>2002.0</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C384" s="5"/>
       <c r="D384" s="3">
@@ -18902,15 +20054,18 @@
         <v>6.93E8</v>
       </c>
       <c r="P384" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q384" s="3">
         <v>1.864E9</v>
       </c>
     </row>
-    <row r="385" hidden="1">
+    <row r="385">
       <c r="A385" s="3">
         <v>2003.0</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C385" s="5"/>
       <c r="D385" s="3">
@@ -18950,15 +20105,18 @@
         <v>1.424E9</v>
       </c>
       <c r="P385" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q385" s="3">
         <v>1.298E9</v>
       </c>
     </row>
-    <row r="386" hidden="1">
+    <row r="386">
       <c r="A386" s="4">
         <v>2004.0</v>
       </c>
       <c r="B386" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C386" s="3">
         <v>29.3</v>
@@ -19000,15 +20158,18 @@
         <v>1.715E9</v>
       </c>
       <c r="P386" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q386" s="3">
         <v>4.98E9</v>
       </c>
     </row>
-    <row r="387" hidden="1">
+    <row r="387">
       <c r="A387" s="4">
         <v>2005.0</v>
       </c>
       <c r="B387" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C387" s="3">
         <v>29.1</v>
@@ -19050,15 +20211,18 @@
         <v>7.808E9</v>
       </c>
       <c r="P387" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q387" s="3">
         <v>6.74E8</v>
       </c>
     </row>
-    <row r="388" hidden="1">
+    <row r="388">
       <c r="A388" s="4">
         <v>2006.0</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C388" s="3">
         <v>28.7</v>
@@ -19100,15 +20264,18 @@
         <v>5.604E9</v>
       </c>
       <c r="P388" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q388" s="3">
         <v>-3.07E9</v>
       </c>
     </row>
-    <row r="389" hidden="1">
+    <row r="389">
       <c r="A389" s="4">
         <v>2007.0</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C389" s="3">
         <v>28.2</v>
@@ -19150,15 +20317,18 @@
         <v>1.0193E10</v>
       </c>
       <c r="P389" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q389" s="3">
         <v>-8.131E9</v>
       </c>
     </row>
-    <row r="390" hidden="1">
+    <row r="390">
       <c r="A390" s="4">
         <v>2008.0</v>
       </c>
       <c r="B390" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C390" s="3">
         <v>27.7</v>
@@ -19200,15 +20370,18 @@
         <v>1.07E10</v>
       </c>
       <c r="P390" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q390" s="3">
         <v>-1.4368E10</v>
       </c>
     </row>
-    <row r="391" hidden="1">
+    <row r="391">
       <c r="A391" s="4">
         <v>2009.0</v>
       </c>
       <c r="B391" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C391" s="3">
         <v>27.3</v>
@@ -19250,15 +20423,18 @@
         <v>4.769E9</v>
       </c>
       <c r="P391" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q391" s="3">
         <v>-1.957E9</v>
       </c>
     </row>
-    <row r="392" hidden="1">
+    <row r="392">
       <c r="A392" s="4">
         <v>2010.0</v>
       </c>
       <c r="B392" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C392" s="3">
         <v>27.1</v>
@@ -19300,15 +20476,18 @@
         <v>6.451E9</v>
       </c>
       <c r="P392" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q392" s="3">
         <v>-3.982E9</v>
       </c>
     </row>
-    <row r="393" hidden="1">
+    <row r="393">
       <c r="A393" s="4">
         <v>2011.0</v>
       </c>
       <c r="B393" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C393" s="3">
         <v>26.9</v>
@@ -19350,15 +20529,18 @@
         <v>7.207E9</v>
       </c>
       <c r="P393" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q393" s="3">
         <v>-1.0145E10</v>
       </c>
     </row>
-    <row r="394" hidden="1">
+    <row r="394">
       <c r="A394" s="4">
         <v>2012.0</v>
       </c>
       <c r="B394" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C394" s="3">
         <v>26.8</v>
@@ -19400,15 +20582,18 @@
         <v>8.175E9</v>
       </c>
       <c r="P394" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q394" s="3">
         <v>-1.4346E10</v>
       </c>
     </row>
-    <row r="395" hidden="1">
+    <row r="395">
       <c r="A395" s="4">
         <v>2013.0</v>
       </c>
       <c r="B395" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C395" s="3">
         <v>26.7</v>
@@ -19450,15 +20635,18 @@
         <v>4.509E9</v>
       </c>
       <c r="P395" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q395" s="3">
         <v>-1.5634E10</v>
       </c>
     </row>
-    <row r="396" hidden="1">
+    <row r="396">
       <c r="A396" s="4">
         <v>2014.0</v>
       </c>
       <c r="B396" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C396" s="3">
         <v>26.7</v>
@@ -19500,15 +20688,18 @@
         <v>8.47E8</v>
       </c>
       <c r="P396" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q396" s="3">
         <v>-4.606E9</v>
       </c>
     </row>
-    <row r="397" hidden="1">
+    <row r="397">
       <c r="A397" s="4">
         <v>2015.0</v>
       </c>
       <c r="B397" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C397" s="3">
         <v>26.8</v>
@@ -19550,15 +20741,18 @@
         <v>-1.98E8</v>
       </c>
       <c r="P397" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q397" s="3">
         <v>-2.362E9</v>
       </c>
     </row>
-    <row r="398" hidden="1">
+    <row r="398">
       <c r="A398" s="4">
         <v>2016.0</v>
       </c>
       <c r="B398" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C398" s="3">
         <v>26.9</v>
@@ -19600,15 +20794,18 @@
         <v>4.128E9</v>
       </c>
       <c r="P398" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q398" s="3">
         <v>-6.453E9</v>
       </c>
     </row>
-    <row r="399" hidden="1">
+    <row r="399">
       <c r="A399" s="4">
         <v>2017.0</v>
       </c>
       <c r="B399" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C399" s="3">
         <v>27.0</v>
@@ -19650,15 +20847,18 @@
         <v>3.68E9</v>
       </c>
       <c r="P399" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q399" s="3">
         <v>-8.744E9</v>
       </c>
     </row>
-    <row r="400" hidden="1">
+    <row r="400">
       <c r="A400" s="4">
         <v>2018.0</v>
       </c>
       <c r="B400" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C400" s="3">
         <v>27.0</v>
@@ -19700,15 +20900,18 @@
         <v>4.975E9</v>
       </c>
       <c r="P400" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q400" s="3">
         <v>-1.1378E10</v>
       </c>
     </row>
-    <row r="401" hidden="1">
+    <row r="401">
       <c r="A401" s="4">
         <v>2019.0</v>
       </c>
       <c r="B401" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C401" s="3">
         <v>27.1</v>
@@ -19750,31 +20953,18 @@
         <v>5.796E9</v>
       </c>
       <c r="P401" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="Q401" s="3">
         <v>-1.2511E10</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$P$401">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Romania"/>
-        <filter val="Hungary"/>
-        <filter val="Czechia"/>
-        <filter val="Latvia"/>
-        <filter val="Poland"/>
-        <filter val="Slovakia"/>
-        <filter val="Slovenia"/>
-        <filter val="Bulgaria"/>
-        <filter val="Lithuania"/>
-        <filter val="Croatia"/>
-        <filter val="Estonia"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="0">
-      <filters>
-        <filter val="2006"/>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="$A$1:$Q$401">
+    <sortState ref="A1:Q401">
+      <sortCondition ref="B1:B401"/>
+      <sortCondition ref="A1:A401"/>
+    </sortState>
   </autoFilter>
   <mergeCells count="4">
     <mergeCell ref="B212:C212"/>
